--- a/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
+++ b/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="255" windowWidth="19020" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="255" windowWidth="19020" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="合同书" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="405">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -437,936 +437,975 @@
     <t>JieDuanMuBiao</t>
   </si>
   <si>
+    <t>JieDuanChengGuo</t>
+  </si>
+  <si>
+    <t>研究进度安排表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiShuBiao</t>
+  </si>
+  <si>
+    <t>技术要求表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeiRong</t>
+  </si>
+  <si>
+    <t>课题单位任务分工表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TiJiaoYaoQiuBiao</t>
+  </si>
+  <si>
+    <t>提交要求表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YaoQiu</t>
+  </si>
+  <si>
+    <t>ZhiBiaoBiao</t>
+  </si>
+  <si>
+    <t>指标名称，要求，考核方式表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhiBiaoMingCheng</t>
+  </si>
+  <si>
+    <t>ZhiBiaoYaoQiu</t>
+  </si>
+  <si>
+    <t>KaoHeFangShi</t>
+  </si>
+  <si>
+    <t>记录ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托_单位名称</t>
+  </si>
+  <si>
+    <t>委托_单位性质</t>
+  </si>
+  <si>
+    <t>委托_法定代表人</t>
+  </si>
+  <si>
+    <t>委托_联系人</t>
+  </si>
+  <si>
+    <t>委托_联系电话</t>
+  </si>
+  <si>
+    <t>委托_通信地址</t>
+  </si>
+  <si>
+    <t>委托_邮政编码</t>
+  </si>
+  <si>
+    <t>委托_组织机构代码</t>
+  </si>
+  <si>
+    <t>委托_税号</t>
+  </si>
+  <si>
+    <t>委托_开户名称</t>
+  </si>
+  <si>
+    <t>委托_开户银行</t>
+  </si>
+  <si>
+    <t>委托_银行账号</t>
+  </si>
+  <si>
+    <t>委托_财务负责人</t>
+  </si>
+  <si>
+    <t>承研_单位名称</t>
+  </si>
+  <si>
+    <t>承研_单位性质</t>
+  </si>
+  <si>
+    <t>承研_法定代表人</t>
+  </si>
+  <si>
+    <t>承研_联系人</t>
+  </si>
+  <si>
+    <t>承研_联系电话</t>
+  </si>
+  <si>
+    <t>承研_通信地址</t>
+  </si>
+  <si>
+    <t>承研_邮政编码</t>
+  </si>
+  <si>
+    <t>承研_组织机构代码</t>
+  </si>
+  <si>
+    <t>承研_税号</t>
+  </si>
+  <si>
+    <t>承研_开户名称</t>
+  </si>
+  <si>
+    <t>承研_开户银行</t>
+  </si>
+  <si>
+    <t>承研_银行账号</t>
+  </si>
+  <si>
+    <t>承研_财务负责人</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同密级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同密期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责人身份证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责人电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同价款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位联系人电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同经费管理模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题研究目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题研究内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题参加单位分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前已废弃，由课题参加单位分工表代替)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位联系人电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题所属部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题所属地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务职称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为项目负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨付条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段成果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>项目课题表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SecretLevel</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type2</t>
+  </si>
+  <si>
+    <t>ParentID</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>TotalTime</t>
+  </si>
+  <si>
+    <t>TotalMoney</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>DirectionCode</t>
+  </si>
+  <si>
+    <t>[Nvarchar(50)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(10)]</t>
+  </si>
+  <si>
+    <t>[NVARCHAR(10)]</t>
+  </si>
+  <si>
+    <t>ExtFileList</t>
+  </si>
+  <si>
+    <t>保密资质附件表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>ExtName</t>
+  </si>
+  <si>
+    <t>ExtType</t>
+  </si>
+  <si>
+    <t>SourceFileName</t>
+  </si>
+  <si>
+    <t>RealFileName</t>
+  </si>
+  <si>
+    <t>IsIgnore</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>[nvarchar(200)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(30)]</t>
+  </si>
+  <si>
+    <t>MoneyAndYear</t>
+  </si>
+  <si>
+    <t>经费预算表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>IDCard</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>AttachInfo</t>
+  </si>
+  <si>
+    <t>[nvarchar(5)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(20000)]</t>
+  </si>
+  <si>
+    <t>ProjectAndStep</t>
+  </si>
+  <si>
+    <t>课题阶段表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepID</t>
+  </si>
+  <si>
+    <t>StepContent</t>
+  </si>
+  <si>
+    <t>StepDest</t>
+  </si>
+  <si>
+    <t>StepTarget</t>
+  </si>
+  <si>
+    <t>StepResult</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>StepTime</t>
+  </si>
+  <si>
+    <t>StepMoney</t>
+  </si>
+  <si>
+    <t>StepIndex</t>
+  </si>
+  <si>
+    <t>项目阶段表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>人员角色分配表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonID</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>DisplayOrder</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>FlagName</t>
+  </si>
+  <si>
+    <t>NormalName</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>SecretQualification</t>
+  </si>
+  <si>
+    <t>单位表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitExt</t>
+  </si>
+  <si>
+    <t>单位帐号表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitBankUser</t>
+  </si>
+  <si>
+    <t>UnitBankName</t>
+  </si>
+  <si>
+    <t>UnitBankNo</t>
+  </si>
+  <si>
+    <t>IsUserAdded</t>
+  </si>
+  <si>
+    <t>[nvarchar(255)]</t>
+  </si>
+  <si>
+    <t>WhiteList</t>
+  </si>
+  <si>
+    <t>候选单位表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZiDianBiao</t>
+  </si>
+  <si>
+    <t>共同条款数据字典表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(600)]</t>
+  </si>
+  <si>
+    <t>(目前已废弃)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保密级别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为总体课题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(项目或课题)</t>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当前为课题的话，则存储项目ID,否则为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题的负责单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目方向代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件显示名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前为空)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件源文件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件当前文件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为军队单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务职称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父阶段ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(300)]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前为空)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核指标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(负责人或成员)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(项目或课题)用于表示项目角色或课题角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题总经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位常用名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位联系电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位保密级别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户帐号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为用户添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(基本不用，但是还会更新数据)</t>
+  </si>
+  <si>
+    <t>(基本不用，但是还会更新数据)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目标已不用了)</t>
+  </si>
+  <si>
+    <t>(目标已不用了)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目标已不用了,但是还会更新数据)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(当前保存的是 阶段目标与研究内容 )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(当前保存的是 阶段成果、考核指标及考核方式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>WanChengNeiRong</t>
-  </si>
-  <si>
-    <t>JieDuanChengGuo</t>
-  </si>
-  <si>
-    <t>研究进度安排表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JiShuBiao</t>
-  </si>
-  <si>
-    <t>技术要求表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeiRong</t>
-  </si>
-  <si>
-    <t>课题单位任务分工表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiJiaoYaoQiuBiao</t>
-  </si>
-  <si>
-    <t>提交要求表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>YaoQiu</t>
-  </si>
-  <si>
-    <t>ZhiBiaoBiao</t>
-  </si>
-  <si>
-    <t>指标名称，要求，考核方式表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZhiBiaoMingCheng</t>
-  </si>
-  <si>
-    <t>ZhiBiaoYaoQiu</t>
-  </si>
-  <si>
-    <t>KaoHeFangShi</t>
-  </si>
-  <si>
-    <t>记录ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托_单位名称</t>
-  </si>
-  <si>
-    <t>委托_单位性质</t>
-  </si>
-  <si>
-    <t>委托_法定代表人</t>
-  </si>
-  <si>
-    <t>委托_联系人</t>
-  </si>
-  <si>
-    <t>委托_联系电话</t>
-  </si>
-  <si>
-    <t>委托_通信地址</t>
-  </si>
-  <si>
-    <t>委托_邮政编码</t>
-  </si>
-  <si>
-    <t>委托_组织机构代码</t>
-  </si>
-  <si>
-    <t>委托_税号</t>
-  </si>
-  <si>
-    <t>委托_开户名称</t>
-  </si>
-  <si>
-    <t>委托_开户银行</t>
-  </si>
-  <si>
-    <t>委托_银行账号</t>
-  </si>
-  <si>
-    <t>委托_财务负责人</t>
-  </si>
-  <si>
-    <t>承研_单位名称</t>
-  </si>
-  <si>
-    <t>承研_单位性质</t>
-  </si>
-  <si>
-    <t>承研_法定代表人</t>
-  </si>
-  <si>
-    <t>承研_联系人</t>
-  </si>
-  <si>
-    <t>承研_联系电话</t>
-  </si>
-  <si>
-    <t>承研_通信地址</t>
-  </si>
-  <si>
-    <t>承研_邮政编码</t>
-  </si>
-  <si>
-    <t>承研_组织机构代码</t>
-  </si>
-  <si>
-    <t>承研_税号</t>
-  </si>
-  <si>
-    <t>承研_开户名称</t>
-  </si>
-  <si>
-    <t>承研_开户银行</t>
-  </si>
-  <si>
-    <t>承研_银行账号</t>
-  </si>
-  <si>
-    <t>承研_财务负责人</t>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同密级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同密期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责人身份证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同价款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位联系人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属地点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同经费管理模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题研究目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题研究内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题参加单位分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前已废弃，由课题参加单位分工表代替)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位联系人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题所属部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题所属地点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经费金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务职称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为项目负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨付条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经费金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段成果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标要求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>项目课题表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SecretLevel</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Type2</t>
-  </si>
-  <si>
-    <t>ParentID</t>
-  </si>
-  <si>
-    <t>UnitID</t>
-  </si>
-  <si>
-    <t>TotalTime</t>
-  </si>
-  <si>
-    <t>TotalMoney</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>DirectionCode</t>
-  </si>
-  <si>
-    <t>[Nvarchar(50)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(10)]</t>
-  </si>
-  <si>
-    <t>[NVARCHAR(10)]</t>
-  </si>
-  <si>
-    <t>ExtFileList</t>
-  </si>
-  <si>
-    <t>保密资质附件表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-  </si>
-  <si>
-    <t>ExtName</t>
-  </si>
-  <si>
-    <t>ExtType</t>
-  </si>
-  <si>
-    <t>SourceFileName</t>
-  </si>
-  <si>
-    <t>RealFileName</t>
-  </si>
-  <si>
-    <t>IsIgnore</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>[nvarchar(200)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(30)]</t>
-  </si>
-  <si>
-    <t>MoneyAndYear</t>
-  </si>
-  <si>
-    <t>经费预算表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>IDCard</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>AttachInfo</t>
-  </si>
-  <si>
-    <t>[nvarchar(5)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(20000)]</t>
-  </si>
-  <si>
-    <t>ProjectAndStep</t>
-  </si>
-  <si>
-    <t>课题阶段表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepID</t>
-  </si>
-  <si>
-    <t>StepContent</t>
-  </si>
-  <si>
-    <t>StepDest</t>
-  </si>
-  <si>
-    <t>StepTarget</t>
-  </si>
-  <si>
-    <t>StepResult</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>StepTime</t>
-  </si>
-  <si>
-    <t>StepMoney</t>
-  </si>
-  <si>
-    <t>StepIndex</t>
-  </si>
-  <si>
-    <t>项目阶段表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>人员角色分配表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonID</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>DisplayOrder</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>FlagName</t>
-  </si>
-  <si>
-    <t>NormalName</t>
-  </si>
-  <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>SecretQualification</t>
-  </si>
-  <si>
-    <t>单位表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitExt</t>
-  </si>
-  <si>
-    <t>单位帐号表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitBankUser</t>
-  </si>
-  <si>
-    <t>UnitBankName</t>
-  </si>
-  <si>
-    <t>UnitBankNo</t>
-  </si>
-  <si>
-    <t>IsUserAdded</t>
-  </si>
-  <si>
-    <t>[nvarchar(255)]</t>
-  </si>
-  <si>
-    <t>WhiteList</t>
-  </si>
-  <si>
-    <t>候选单位表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZiDianBiao</t>
-  </si>
-  <si>
-    <t>共同条款数据字典表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nvarchar(600)]</t>
-  </si>
-  <si>
-    <t>(目前已废弃)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保密级别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为总体课题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(项目或课题)</t>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如当前为课题的话，则存储项目ID,否则为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题的负责单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目总时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目总经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目方向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目方向代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件显示名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前为空)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件源文件名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件当前文件名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为军队单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务职称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>父阶段ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nvarchar(300)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前为空)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核指标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(负责人或成员)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(项目或课题)用于表示项目角色或课题角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题总经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位别名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位常用名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位联系电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位保密级别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户帐号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为用户添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前已不用了)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前用于保存 阶段目标与研究内容)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前用于保存 阶段成果、考核指标及考核方式)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1752,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1763,7 +1802,7 @@
     <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -1797,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -1814,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
@@ -1831,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -1848,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -1865,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
@@ -1882,7 +1921,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -1899,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -1916,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -1933,7 +1972,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -1950,7 +1989,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -1967,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
         <v>63</v>
@@ -1984,7 +2023,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -2001,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
         <v>61</v>
@@ -2018,7 +2057,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -2035,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
@@ -2052,7 +2091,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
@@ -2069,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
@@ -2086,7 +2125,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -2103,7 +2142,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -2120,7 +2159,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
         <v>64</v>
@@ -2137,7 +2176,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -2154,7 +2193,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
         <v>61</v>
@@ -2171,7 +2210,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
@@ -2188,7 +2227,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -2205,7 +2244,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
         <v>61</v>
@@ -2222,7 +2261,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
@@ -2239,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
@@ -2256,7 +2295,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -2273,7 +2312,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
         <v>61</v>
@@ -2290,7 +2329,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
@@ -2307,7 +2346,7 @@
         <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
         <v>61</v>
@@ -2324,7 +2363,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
@@ -2341,7 +2380,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
         <v>61</v>
@@ -2358,7 +2397,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
         <v>61</v>
@@ -2375,7 +2414,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
         <v>61</v>
@@ -2392,7 +2431,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -2409,7 +2448,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
         <v>61</v>
@@ -2426,7 +2465,7 @@
         <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
         <v>61</v>
@@ -2443,7 +2482,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
         <v>61</v>
@@ -2460,7 +2499,7 @@
         <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
         <v>61</v>
@@ -2477,7 +2516,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
         <v>61</v>
@@ -2494,7 +2533,7 @@
         <v>49</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43" t="s">
         <v>61</v>
@@ -2511,7 +2550,7 @@
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
         <v>61</v>
@@ -2528,7 +2567,7 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E45" t="s">
         <v>61</v>
@@ -2545,7 +2584,7 @@
         <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
         <v>61</v>
@@ -2562,7 +2601,7 @@
         <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
         <v>61</v>
@@ -2579,7 +2618,7 @@
         <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
         <v>61</v>
@@ -2596,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
         <v>61</v>
@@ -2627,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" t="s">
         <v>57</v>
@@ -2644,7 +2683,7 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
         <v>79</v>
@@ -2661,7 +2700,7 @@
         <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
         <v>80</v>
@@ -2678,7 +2717,7 @@
         <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" t="s">
         <v>81</v>
@@ -2695,13 +2734,13 @@
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s">
         <v>82</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2715,7 +2754,7 @@
         <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57" t="s">
         <v>83</v>
@@ -2732,7 +2771,7 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58" t="s">
         <v>79</v>
@@ -2749,7 +2788,7 @@
         <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E59" t="s">
         <v>79</v>
@@ -2766,7 +2805,7 @@
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60" t="s">
         <v>79</v>
@@ -2783,7 +2822,7 @@
         <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E61" t="s">
         <v>79</v>
@@ -2800,7 +2839,7 @@
         <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E62" t="s">
         <v>79</v>
@@ -2817,7 +2856,7 @@
         <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
         <v>65</v>
@@ -2834,7 +2873,7 @@
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
@@ -2851,7 +2890,7 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
         <v>57</v>
@@ -2868,7 +2907,7 @@
         <v>87</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E67" t="s">
         <v>57</v>
@@ -2885,7 +2924,7 @@
         <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
         <v>60</v>
@@ -2902,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
         <v>63</v>
@@ -2919,7 +2958,7 @@
         <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
         <v>65</v>
@@ -2936,7 +2975,7 @@
         <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -2953,7 +2992,7 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
         <v>57</v>
@@ -2970,7 +3009,7 @@
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E74" t="s">
         <v>57</v>
@@ -2987,7 +3026,7 @@
         <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
         <v>61</v>
@@ -3004,7 +3043,7 @@
         <v>93</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
         <v>61</v>
@@ -3021,7 +3060,7 @@
         <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E77" t="s">
         <v>65</v>
@@ -3038,7 +3077,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E78" t="s">
         <v>62</v>
@@ -3055,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
         <v>110</v>
@@ -3072,7 +3111,7 @@
         <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E81" t="s">
         <v>111</v>
@@ -3089,7 +3128,7 @@
         <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
         <v>62</v>
@@ -3106,7 +3145,7 @@
         <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E83" t="s">
         <v>112</v>
@@ -3123,7 +3162,7 @@
         <v>99</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" t="s">
         <v>111</v>
@@ -3140,7 +3179,7 @@
         <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E85" t="s">
         <v>111</v>
@@ -3157,7 +3196,7 @@
         <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E86" t="s">
         <v>111</v>
@@ -3174,7 +3213,7 @@
         <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" t="s">
         <v>60</v>
@@ -3191,7 +3230,7 @@
         <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E88" t="s">
         <v>78</v>
@@ -3208,7 +3247,7 @@
         <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E89" t="s">
         <v>78</v>
@@ -3225,7 +3264,7 @@
         <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E90" t="s">
         <v>61</v>
@@ -3242,7 +3281,7 @@
         <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E91" t="s">
         <v>61</v>
@@ -3259,7 +3298,7 @@
         <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E92" t="s">
         <v>110</v>
@@ -3276,13 +3315,13 @@
         <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E93" t="s">
         <v>111</v>
       </c>
       <c r="F93" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -3296,7 +3335,7 @@
         <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E94" t="s">
         <v>61</v>
@@ -3313,7 +3352,7 @@
         <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E95" t="s">
         <v>65</v>
@@ -3330,7 +3369,7 @@
         <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E96" t="s">
         <v>62</v>
@@ -3347,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E98" t="s">
         <v>115</v>
@@ -3364,7 +3403,7 @@
         <v>92</v>
       </c>
       <c r="D99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
         <v>116</v>
@@ -3381,7 +3420,7 @@
         <v>93</v>
       </c>
       <c r="D100" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E100" t="s">
         <v>116</v>
@@ -3398,7 +3437,7 @@
         <v>56</v>
       </c>
       <c r="D101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E101" t="s">
         <v>65</v>
@@ -3415,7 +3454,7 @@
         <v>77</v>
       </c>
       <c r="D102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E102" t="s">
         <v>62</v>
@@ -3432,7 +3471,7 @@
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E104" t="s">
         <v>57</v>
@@ -3449,7 +3488,7 @@
         <v>87</v>
       </c>
       <c r="D105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E105" t="s">
         <v>57</v>
@@ -3466,7 +3505,7 @@
         <v>118</v>
       </c>
       <c r="D106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E106" t="s">
         <v>61</v>
@@ -3483,7 +3522,7 @@
         <v>103</v>
       </c>
       <c r="D107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E107" t="s">
         <v>120</v>
@@ -3500,7 +3539,7 @@
         <v>56</v>
       </c>
       <c r="D108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E108" t="s">
         <v>65</v>
@@ -3517,7 +3556,7 @@
         <v>77</v>
       </c>
       <c r="D109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E109" t="s">
         <v>62</v>
@@ -3534,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E111" t="s">
         <v>110</v>
@@ -3551,7 +3590,7 @@
         <v>123</v>
       </c>
       <c r="D112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E112" t="s">
         <v>127</v>
@@ -3568,7 +3607,7 @@
         <v>124</v>
       </c>
       <c r="D113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E113" t="s">
         <v>62</v>
@@ -3585,7 +3624,7 @@
         <v>125</v>
       </c>
       <c r="D114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E114" t="s">
         <v>63</v>
@@ -3619,7 +3658,7 @@
         <v>56</v>
       </c>
       <c r="D116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E116" t="s">
         <v>65</v>
@@ -3636,7 +3675,7 @@
         <v>77</v>
       </c>
       <c r="D117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E117" t="s">
         <v>62</v>
@@ -3653,7 +3692,7 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E119" t="s">
         <v>57</v>
@@ -3670,7 +3709,7 @@
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E120" t="s">
         <v>61</v>
@@ -3687,7 +3726,7 @@
         <v>88</v>
       </c>
       <c r="D121" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E121" t="s">
         <v>60</v>
@@ -3704,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="D122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E122" t="s">
         <v>63</v>
@@ -3721,7 +3760,7 @@
         <v>56</v>
       </c>
       <c r="D123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E123" t="s">
         <v>65</v>
@@ -3738,7 +3777,7 @@
         <v>77</v>
       </c>
       <c r="D124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E124" t="s">
         <v>62</v>
@@ -3749,13 +3788,13 @@
         <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E126" t="s">
         <v>110</v>
@@ -3766,13 +3805,13 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C127" t="s">
         <v>131</v>
       </c>
       <c r="D127" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E127" t="s">
         <v>60</v>
@@ -3783,251 +3822,260 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" t="s">
         <v>132</v>
       </c>
       <c r="D128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E128" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
         <v>133</v>
       </c>
       <c r="D129" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F129" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>134</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E130" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F130" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E131" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F131" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
         <v>56</v>
       </c>
       <c r="D132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E132" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
         <v>77</v>
       </c>
       <c r="D133" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E133" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
         <v>137</v>
-      </c>
-      <c r="B135" t="s">
-        <v>138</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E135" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
         <v>137</v>
-      </c>
-      <c r="B136" t="s">
-        <v>138</v>
       </c>
       <c r="C136" t="s">
         <v>88</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E136" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>138</v>
       </c>
-      <c r="C137" t="s">
-        <v>139</v>
-      </c>
       <c r="D137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E137" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
         <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>138</v>
       </c>
       <c r="C138" t="s">
         <v>56</v>
       </c>
       <c r="D138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E138" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
         <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>138</v>
       </c>
       <c r="C139" t="s">
         <v>77</v>
       </c>
       <c r="D139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E139" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>117</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E141" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>117</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" t="s">
         <v>87</v>
       </c>
       <c r="D142" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E142" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>117</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C143" t="s">
         <v>118</v>
       </c>
       <c r="D143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E143" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>117</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" t="s">
         <v>103</v>
       </c>
       <c r="D144" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E144" t="s">
         <v>120</v>
@@ -4038,13 +4086,13 @@
         <v>117</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C145" t="s">
         <v>56</v>
       </c>
       <c r="D145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E145" t="s">
         <v>65</v>
@@ -4055,13 +4103,13 @@
         <v>117</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" t="s">
         <v>77</v>
       </c>
       <c r="D146" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E146" t="s">
         <v>62</v>
@@ -4069,16 +4117,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
+        <v>140</v>
+      </c>
+      <c r="B148" t="s">
         <v>141</v>
-      </c>
-      <c r="B148" t="s">
-        <v>142</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E148" t="s">
         <v>110</v>
@@ -4086,16 +4134,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" t="s">
         <v>141</v>
-      </c>
-      <c r="B149" t="s">
-        <v>142</v>
       </c>
       <c r="C149" t="s">
         <v>92</v>
       </c>
       <c r="D149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E149" t="s">
         <v>127</v>
@@ -4103,16 +4151,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" t="s">
         <v>141</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>142</v>
       </c>
-      <c r="C150" t="s">
-        <v>143</v>
-      </c>
       <c r="D150" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E150" t="s">
         <v>127</v>
@@ -4120,16 +4168,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" t="s">
         <v>141</v>
-      </c>
-      <c r="B151" t="s">
-        <v>142</v>
       </c>
       <c r="C151" t="s">
         <v>56</v>
       </c>
       <c r="D151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E151" t="s">
         <v>65</v>
@@ -4137,16 +4185,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" t="s">
         <v>141</v>
-      </c>
-      <c r="B152" t="s">
-        <v>142</v>
       </c>
       <c r="C152" t="s">
         <v>77</v>
       </c>
       <c r="D152" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E152" t="s">
         <v>62</v>
@@ -4154,16 +4202,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" t="s">
         <v>144</v>
-      </c>
-      <c r="B154" t="s">
-        <v>145</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E154" t="s">
         <v>110</v>
@@ -4171,16 +4219,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
+        <v>143</v>
+      </c>
+      <c r="B155" t="s">
         <v>144</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>145</v>
       </c>
-      <c r="C155" t="s">
-        <v>146</v>
-      </c>
       <c r="D155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E155" t="s">
         <v>127</v>
@@ -4188,16 +4236,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
+        <v>143</v>
+      </c>
+      <c r="B156" t="s">
         <v>144</v>
       </c>
-      <c r="B156" t="s">
-        <v>145</v>
-      </c>
       <c r="C156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D156" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E156" t="s">
         <v>127</v>
@@ -4205,16 +4253,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
+        <v>143</v>
+      </c>
+      <c r="B157" t="s">
         <v>144</v>
       </c>
-      <c r="B157" t="s">
-        <v>145</v>
-      </c>
       <c r="C157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E157" t="s">
         <v>127</v>
@@ -4222,16 +4270,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
+        <v>143</v>
+      </c>
+      <c r="B158" t="s">
         <v>144</v>
-      </c>
-      <c r="B158" t="s">
-        <v>145</v>
       </c>
       <c r="C158" t="s">
         <v>56</v>
       </c>
       <c r="D158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E158" t="s">
         <v>65</v>
@@ -4239,16 +4287,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159" t="s">
         <v>144</v>
-      </c>
-      <c r="B159" t="s">
-        <v>145</v>
       </c>
       <c r="C159" t="s">
         <v>77</v>
       </c>
       <c r="D159" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E159" t="s">
         <v>62</v>
@@ -4256,16 +4304,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" t="s">
         <v>327</v>
-      </c>
-      <c r="B161" t="s">
-        <v>328</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E161" t="s">
         <v>57</v>
@@ -4273,50 +4321,50 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" t="s">
         <v>327</v>
-      </c>
-      <c r="B162" t="s">
-        <v>328</v>
       </c>
       <c r="C162" t="s">
         <v>92</v>
       </c>
       <c r="D162" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E162" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
+        <v>326</v>
+      </c>
+      <c r="B163" t="s">
         <v>327</v>
-      </c>
-      <c r="B163" t="s">
-        <v>328</v>
       </c>
       <c r="C163" t="s">
         <v>93</v>
       </c>
       <c r="D163" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E163" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
         <v>327</v>
-      </c>
-      <c r="B164" t="s">
-        <v>328</v>
       </c>
       <c r="C164" t="s">
         <v>56</v>
       </c>
       <c r="D164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E164" t="s">
         <v>65</v>
@@ -4324,16 +4372,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" t="s">
         <v>327</v>
-      </c>
-      <c r="B165" t="s">
-        <v>328</v>
       </c>
       <c r="C165" t="s">
         <v>77</v>
       </c>
       <c r="D165" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E165" t="s">
         <v>62</v>
@@ -4350,8 +4398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4361,7 +4409,7 @@
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -4386,33 +4434,33 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
         <v>246</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>247</v>
       </c>
-      <c r="C2" t="s">
-        <v>248</v>
-      </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s">
         <v>246</v>
       </c>
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -4420,16 +4468,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" t="s">
         <v>246</v>
       </c>
-      <c r="B4" t="s">
-        <v>247</v>
-      </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -4437,90 +4485,93 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
         <v>246</v>
       </c>
-      <c r="B5" t="s">
-        <v>247</v>
-      </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" t="s">
         <v>334</v>
-      </c>
-      <c r="E5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F5" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
         <v>246</v>
       </c>
-      <c r="B6" t="s">
-        <v>247</v>
-      </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="F6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" t="s">
         <v>246</v>
       </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" t="s">
         <v>336</v>
-      </c>
-      <c r="E7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="s">
         <v>246</v>
       </c>
-      <c r="B8" t="s">
-        <v>247</v>
-      </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
         <v>246</v>
       </c>
-      <c r="B9" t="s">
-        <v>247</v>
-      </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -4528,16 +4579,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
         <v>246</v>
       </c>
-      <c r="B10" t="s">
-        <v>247</v>
-      </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -4545,16 +4596,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" t="s">
         <v>246</v>
       </c>
-      <c r="B11" t="s">
-        <v>247</v>
-      </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -4562,16 +4613,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" t="s">
         <v>246</v>
       </c>
-      <c r="B12" t="s">
-        <v>247</v>
-      </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E12" t="s">
         <v>61</v>
@@ -4579,16 +4630,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
         <v>246</v>
       </c>
-      <c r="B13" t="s">
-        <v>247</v>
-      </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -4596,16 +4647,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
         <v>246</v>
       </c>
-      <c r="B14" t="s">
-        <v>247</v>
-      </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -4613,121 +4664,121 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" t="s">
         <v>264</v>
       </c>
-      <c r="B16" t="s">
-        <v>265</v>
-      </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
         <v>264</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>265</v>
       </c>
-      <c r="C17" t="s">
-        <v>266</v>
-      </c>
       <c r="D17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" t="s">
         <v>264</v>
       </c>
-      <c r="B18" t="s">
-        <v>265</v>
-      </c>
       <c r="C18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
         <v>264</v>
       </c>
-      <c r="B19" t="s">
-        <v>265</v>
-      </c>
       <c r="C19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" t="s">
         <v>347</v>
-      </c>
-      <c r="E19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
         <v>264</v>
       </c>
-      <c r="B20" t="s">
-        <v>265</v>
-      </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" t="s">
         <v>264</v>
       </c>
-      <c r="B21" t="s">
-        <v>265</v>
-      </c>
       <c r="C21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" t="s">
         <v>264</v>
       </c>
-      <c r="B22" t="s">
-        <v>265</v>
-      </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -4735,87 +4786,87 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" t="s">
         <v>264</v>
       </c>
-      <c r="B23" t="s">
-        <v>265</v>
-      </c>
       <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" t="s">
         <v>272</v>
-      </c>
-      <c r="D23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" t="s">
         <v>275</v>
       </c>
-      <c r="B25" t="s">
-        <v>276</v>
-      </c>
       <c r="C25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" t="s">
         <v>275</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>276</v>
       </c>
-      <c r="C26" t="s">
-        <v>277</v>
-      </c>
       <c r="D26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" t="s">
         <v>275</v>
       </c>
-      <c r="B27" t="s">
-        <v>276</v>
-      </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" t="s">
         <v>275</v>
       </c>
-      <c r="B28" t="s">
-        <v>276</v>
-      </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
@@ -4823,16 +4874,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" t="s">
         <v>275</v>
       </c>
-      <c r="B29" t="s">
-        <v>276</v>
-      </c>
       <c r="C29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -4840,50 +4891,50 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s">
         <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -4891,16 +4942,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
         <v>64</v>
@@ -4908,16 +4959,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>
@@ -4925,33 +4976,33 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s">
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
@@ -4959,16 +5010,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
         <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
         <v>64</v>
@@ -4976,16 +5027,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
         <v>64</v>
@@ -4993,430 +5044,454 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F40" t="s">
         <v>363</v>
-      </c>
-      <c r="F40" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
         <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" t="s">
         <v>291</v>
       </c>
-      <c r="B44" t="s">
-        <v>292</v>
-      </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" t="s">
         <v>291</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>292</v>
       </c>
-      <c r="C45" t="s">
-        <v>293</v>
-      </c>
       <c r="D45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" t="s">
         <v>291</v>
       </c>
-      <c r="B46" t="s">
-        <v>292</v>
-      </c>
       <c r="C46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E46" t="s">
         <v>120</v>
       </c>
+      <c r="F46" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" t="s">
         <v>291</v>
       </c>
-      <c r="B47" t="s">
-        <v>292</v>
-      </c>
       <c r="C47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E47" t="s">
         <v>120</v>
       </c>
+      <c r="F47" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" t="s">
         <v>291</v>
       </c>
-      <c r="B48" t="s">
-        <v>292</v>
-      </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E48" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" t="s">
         <v>291</v>
       </c>
-      <c r="B49" t="s">
-        <v>292</v>
-      </c>
       <c r="C49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s">
         <v>291</v>
       </c>
-      <c r="B50" t="s">
-        <v>292</v>
-      </c>
       <c r="C50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" t="s">
+        <v>302</v>
+      </c>
+      <c r="C53" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" t="s">
         <v>299</v>
       </c>
-      <c r="B52" t="s">
-        <v>303</v>
-      </c>
-      <c r="C52" t="s">
-        <v>248</v>
-      </c>
-      <c r="D52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>299</v>
-      </c>
-      <c r="B53" t="s">
-        <v>303</v>
-      </c>
-      <c r="C53" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>368</v>
-      </c>
-      <c r="E53" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B54" t="s">
-        <v>303</v>
-      </c>
-      <c r="C54" t="s">
-        <v>300</v>
-      </c>
-      <c r="D54" t="s">
-        <v>369</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E55" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E56" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E57" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E58" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" t="s">
         <v>304</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" t="s">
+        <v>371</v>
+      </c>
+      <c r="E63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
         <v>305</v>
       </c>
-      <c r="C62" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>304</v>
-      </c>
-      <c r="B63" t="s">
-        <v>305</v>
-      </c>
-      <c r="C63" t="s">
-        <v>266</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>372</v>
       </c>
-      <c r="E63" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>304</v>
-      </c>
-      <c r="B64" t="s">
-        <v>305</v>
-      </c>
-      <c r="C64" t="s">
-        <v>306</v>
-      </c>
-      <c r="D64" t="s">
-        <v>373</v>
-      </c>
       <c r="E64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>303</v>
+      </c>
+      <c r="B65" t="s">
         <v>304</v>
       </c>
-      <c r="B65" t="s">
-        <v>305</v>
-      </c>
       <c r="C65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
         <v>59</v>
       </c>
       <c r="F65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66" t="s">
         <v>304</v>
       </c>
-      <c r="B66" t="s">
-        <v>305</v>
-      </c>
       <c r="C66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D66" t="s">
+        <v>374</v>
+      </c>
+      <c r="E66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" t="s">
         <v>375</v>
-      </c>
-      <c r="E66" t="s">
-        <v>262</v>
-      </c>
-      <c r="F66" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" t="s">
         <v>304</v>
       </c>
-      <c r="B67" t="s">
-        <v>305</v>
-      </c>
       <c r="C67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E67" t="s">
         <v>61</v>
@@ -5424,16 +5499,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" t="s">
         <v>304</v>
       </c>
-      <c r="B68" t="s">
-        <v>305</v>
-      </c>
       <c r="C68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E68" t="s">
         <v>60</v>
@@ -5441,16 +5516,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" t="s">
         <v>304</v>
       </c>
-      <c r="B69" t="s">
-        <v>305</v>
-      </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E69" t="s">
         <v>63</v>
@@ -5458,33 +5533,33 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" t="s">
         <v>304</v>
       </c>
-      <c r="B70" t="s">
-        <v>305</v>
-      </c>
       <c r="C70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" t="s">
         <v>304</v>
       </c>
-      <c r="B71" t="s">
-        <v>305</v>
-      </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E71" t="s">
         <v>60</v>
@@ -5492,33 +5567,33 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>309</v>
+      </c>
+      <c r="B74" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" t="s">
         <v>310</v>
       </c>
-      <c r="B74" t="s">
-        <v>317</v>
-      </c>
-      <c r="C74" t="s">
-        <v>311</v>
-      </c>
       <c r="D74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E74" t="s">
         <v>61</v>
@@ -5526,50 +5601,56 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E75" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="F75" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E76" t="s">
         <v>61</v>
       </c>
+      <c r="F76" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D77" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E77" t="s">
         <v>61</v>
@@ -5577,261 +5658,282 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D78" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E78" t="s">
         <v>61</v>
       </c>
+      <c r="F78" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
       </c>
+      <c r="F79" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E80" t="s">
         <v>64</v>
       </c>
+      <c r="F80" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="F81" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" t="s">
         <v>318</v>
       </c>
-      <c r="B83" t="s">
-        <v>319</v>
-      </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" t="s">
         <v>318</v>
       </c>
-      <c r="B84" t="s">
-        <v>319</v>
-      </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D84" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" t="s">
         <v>318</v>
       </c>
-      <c r="B85" t="s">
-        <v>319</v>
-      </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" t="s">
         <v>318</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>319</v>
       </c>
-      <c r="C86" t="s">
-        <v>320</v>
-      </c>
       <c r="D86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>317</v>
+      </c>
+      <c r="B87" t="s">
         <v>318</v>
       </c>
-      <c r="B87" t="s">
-        <v>319</v>
-      </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" t="s">
         <v>318</v>
       </c>
-      <c r="B88" t="s">
-        <v>319</v>
-      </c>
       <c r="C88" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D88" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F88" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>317</v>
+      </c>
+      <c r="B89" t="s">
         <v>318</v>
       </c>
-      <c r="B89" t="s">
-        <v>319</v>
-      </c>
       <c r="C89" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D89" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E89" t="s">
         <v>60</v>
       </c>
       <c r="F89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" t="s">
         <v>325</v>
       </c>
-      <c r="B91" t="s">
-        <v>326</v>
-      </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E91" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="F91" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" t="s">
         <v>325</v>
       </c>
-      <c r="B92" t="s">
-        <v>326</v>
-      </c>
       <c r="C92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E92" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="F92" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
+        <v>324</v>
+      </c>
+      <c r="B93" t="s">
         <v>325</v>
       </c>
-      <c r="B93" t="s">
-        <v>326</v>
-      </c>
       <c r="C93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
+        <v>393</v>
+      </c>
+      <c r="E93" t="s">
+        <v>260</v>
+      </c>
+      <c r="F93" t="s">
         <v>394</v>
-      </c>
-      <c r="E93" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
+++ b/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="合同书" sheetId="1" r:id="rId1"/>
     <sheet name="建议书" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="402">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1179,10 +1178,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(目前为空)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>附件源文件名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1243,10 +1238,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(目前为空)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>完成内容</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1367,24 +1358,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(基本不用，但是还会更新数据)</t>
-  </si>
-  <si>
-    <t>(基本不用，但是还会更新数据)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目标已不用了)</t>
-  </si>
-  <si>
-    <t>(目标已不用了)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目标已不用了,但是还会更新数据)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>(当前保存的是 阶段目标与研究内容 )</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1406,6 +1379,21 @@
   </si>
   <si>
     <t>(目前用于保存 阶段成果、考核指标及考核方式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(会更新为承担单位数据)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(会更新数据,但是没怎么用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前为空，没怎么用)</t>
+  </si>
+  <si>
+    <t>(目前为空，没怎么用)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1791,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1960,6 +1948,9 @@
       <c r="E9" t="s">
         <v>61</v>
       </c>
+      <c r="F9" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -2045,6 +2036,9 @@
       <c r="E14" t="s">
         <v>61</v>
       </c>
+      <c r="F14" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -2062,6 +2056,9 @@
       <c r="E15" t="s">
         <v>61</v>
       </c>
+      <c r="F15" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -2079,6 +2076,9 @@
       <c r="E16" t="s">
         <v>61</v>
       </c>
+      <c r="F16" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -2793,6 +2793,9 @@
       <c r="E59" t="s">
         <v>79</v>
       </c>
+      <c r="F59" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
@@ -2810,6 +2813,9 @@
       <c r="E60" t="s">
         <v>79</v>
       </c>
+      <c r="F60" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
@@ -3321,7 +3327,7 @@
         <v>111</v>
       </c>
       <c r="F93" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -3851,7 +3857,7 @@
         <v>127</v>
       </c>
       <c r="F129" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -3862,7 +3868,7 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D130" t="s">
         <v>237</v>
@@ -3871,7 +3877,7 @@
         <v>127</v>
       </c>
       <c r="F130" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -3891,7 +3897,7 @@
         <v>127</v>
       </c>
       <c r="F131" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -4398,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4520,7 +4526,7 @@
         <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4730,7 +4736,7 @@
         <v>273</v>
       </c>
       <c r="F19" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -4744,7 +4750,7 @@
         <v>268</v>
       </c>
       <c r="D20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E20" t="s">
         <v>272</v>
@@ -4761,7 +4767,7 @@
         <v>269</v>
       </c>
       <c r="D21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E21" t="s">
         <v>272</v>
@@ -4778,7 +4784,7 @@
         <v>270</v>
       </c>
       <c r="D22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -4795,7 +4801,7 @@
         <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
         <v>272</v>
@@ -4829,13 +4835,13 @@
         <v>276</v>
       </c>
       <c r="D26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -4849,7 +4855,7 @@
         <v>265</v>
       </c>
       <c r="D27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E27" t="s">
         <v>260</v>
@@ -4866,7 +4872,7 @@
         <v>248</v>
       </c>
       <c r="D28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
@@ -4917,7 +4923,7 @@
         <v>279</v>
       </c>
       <c r="D32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E32" t="s">
         <v>260</v>
@@ -4951,7 +4957,7 @@
         <v>280</v>
       </c>
       <c r="D34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E34" t="s">
         <v>64</v>
@@ -5036,7 +5042,7 @@
         <v>285</v>
       </c>
       <c r="D39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E39" t="s">
         <v>64</v>
@@ -5053,13 +5059,13 @@
         <v>286</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -5073,7 +5079,7 @@
         <v>287</v>
       </c>
       <c r="D41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E41" t="s">
         <v>289</v>
@@ -5090,7 +5096,7 @@
         <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E42" t="s">
         <v>260</v>
@@ -5124,7 +5130,7 @@
         <v>292</v>
       </c>
       <c r="D45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E45" t="s">
         <v>260</v>
@@ -5141,13 +5147,13 @@
         <v>293</v>
       </c>
       <c r="D46" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E46" t="s">
         <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -5161,13 +5167,13 @@
         <v>294</v>
       </c>
       <c r="D47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -5181,13 +5187,13 @@
         <v>295</v>
       </c>
       <c r="D48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E48" t="s">
         <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -5207,7 +5213,7 @@
         <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -5252,7 +5258,7 @@
         <v>265</v>
       </c>
       <c r="D53" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E53" t="s">
         <v>260</v>
@@ -5269,7 +5275,7 @@
         <v>299</v>
       </c>
       <c r="D54" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -5286,13 +5292,13 @@
         <v>293</v>
       </c>
       <c r="D55" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E55" t="s">
         <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -5306,13 +5312,13 @@
         <v>294</v>
       </c>
       <c r="D56" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E56" t="s">
         <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -5326,13 +5332,13 @@
         <v>295</v>
       </c>
       <c r="D57" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E57" t="s">
         <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -5352,7 +5358,7 @@
         <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -5366,7 +5372,7 @@
         <v>300</v>
       </c>
       <c r="D59" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E59" t="s">
         <v>63</v>
@@ -5383,7 +5389,7 @@
         <v>301</v>
       </c>
       <c r="D60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E60" t="s">
         <v>60</v>
@@ -5417,7 +5423,7 @@
         <v>265</v>
       </c>
       <c r="D63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E63" t="s">
         <v>260</v>
@@ -5434,7 +5440,7 @@
         <v>305</v>
       </c>
       <c r="D64" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E64" t="s">
         <v>260</v>
@@ -5457,7 +5463,7 @@
         <v>59</v>
       </c>
       <c r="F65" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -5471,13 +5477,13 @@
         <v>250</v>
       </c>
       <c r="D66" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E66" t="s">
         <v>261</v>
       </c>
       <c r="F66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -5508,7 +5514,7 @@
         <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E68" t="s">
         <v>60</v>
@@ -5525,7 +5531,7 @@
         <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
         <v>63</v>
@@ -5542,7 +5548,7 @@
         <v>279</v>
       </c>
       <c r="D70" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
         <v>260</v>
@@ -5559,7 +5565,7 @@
         <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E71" t="s">
         <v>60</v>
@@ -5593,7 +5599,7 @@
         <v>310</v>
       </c>
       <c r="D74" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E74" t="s">
         <v>61</v>
@@ -5610,13 +5616,13 @@
         <v>311</v>
       </c>
       <c r="D75" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E75" t="s">
         <v>273</v>
       </c>
       <c r="F75" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -5630,13 +5636,13 @@
         <v>312</v>
       </c>
       <c r="D76" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E76" t="s">
         <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -5650,7 +5656,7 @@
         <v>313</v>
       </c>
       <c r="D77" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
         <v>61</v>
@@ -5667,13 +5673,13 @@
         <v>286</v>
       </c>
       <c r="D78" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
         <v>61</v>
       </c>
       <c r="F78" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -5687,13 +5693,13 @@
         <v>314</v>
       </c>
       <c r="D79" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -5707,13 +5713,13 @@
         <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E80" t="s">
         <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -5727,13 +5733,13 @@
         <v>315</v>
       </c>
       <c r="D81" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E81" t="s">
         <v>288</v>
       </c>
       <c r="F81" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -5767,7 +5773,7 @@
         <v>310</v>
       </c>
       <c r="D84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E84" t="s">
         <v>323</v>
@@ -5787,7 +5793,7 @@
         <v>311</v>
       </c>
       <c r="D85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E85" t="s">
         <v>323</v>
@@ -5807,7 +5813,7 @@
         <v>319</v>
       </c>
       <c r="D86" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E86" t="s">
         <v>323</v>
@@ -5827,7 +5833,7 @@
         <v>320</v>
       </c>
       <c r="D87" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E87" t="s">
         <v>323</v>
@@ -5847,7 +5853,7 @@
         <v>321</v>
       </c>
       <c r="D88" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E88" t="s">
         <v>323</v>
@@ -5867,7 +5873,7 @@
         <v>322</v>
       </c>
       <c r="D89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E89" t="s">
         <v>60</v>
@@ -5893,7 +5899,7 @@
         <v>260</v>
       </c>
       <c r="F91" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -5907,13 +5913,13 @@
         <v>253</v>
       </c>
       <c r="D92" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E92" t="s">
         <v>260</v>
       </c>
       <c r="F92" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -5927,30 +5933,17 @@
         <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E93" t="s">
         <v>260</v>
       </c>
       <c r="F93" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
+++ b/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="404">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -605,795 +605,803 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>合同负责单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位联系人电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同经费管理模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题研究目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题研究内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题参加单位分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前已废弃，由课题参加单位分工表代替)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位联系人电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题所属部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题所属地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务职称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为项目负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨付条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段成果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>项目课题表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SecretLevel</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type2</t>
+  </si>
+  <si>
+    <t>ParentID</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>TotalTime</t>
+  </si>
+  <si>
+    <t>TotalMoney</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>DirectionCode</t>
+  </si>
+  <si>
+    <t>[Nvarchar(50)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(10)]</t>
+  </si>
+  <si>
+    <t>[NVARCHAR(10)]</t>
+  </si>
+  <si>
+    <t>ExtFileList</t>
+  </si>
+  <si>
+    <t>保密资质附件表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>ExtName</t>
+  </si>
+  <si>
+    <t>ExtType</t>
+  </si>
+  <si>
+    <t>SourceFileName</t>
+  </si>
+  <si>
+    <t>RealFileName</t>
+  </si>
+  <si>
+    <t>IsIgnore</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>[nvarchar(200)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(30)]</t>
+  </si>
+  <si>
+    <t>MoneyAndYear</t>
+  </si>
+  <si>
+    <t>经费预算表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>IDCard</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>AttachInfo</t>
+  </si>
+  <si>
+    <t>[nvarchar(5)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(20000)]</t>
+  </si>
+  <si>
+    <t>ProjectAndStep</t>
+  </si>
+  <si>
+    <t>课题阶段表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepID</t>
+  </si>
+  <si>
+    <t>StepContent</t>
+  </si>
+  <si>
+    <t>StepDest</t>
+  </si>
+  <si>
+    <t>StepTarget</t>
+  </si>
+  <si>
+    <t>StepResult</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>StepTime</t>
+  </si>
+  <si>
+    <t>StepMoney</t>
+  </si>
+  <si>
+    <t>StepIndex</t>
+  </si>
+  <si>
+    <t>项目阶段表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>人员角色分配表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonID</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>DisplayOrder</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>FlagName</t>
+  </si>
+  <si>
+    <t>NormalName</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>SecretQualification</t>
+  </si>
+  <si>
+    <t>单位表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitExt</t>
+  </si>
+  <si>
+    <t>单位帐号表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitBankUser</t>
+  </si>
+  <si>
+    <t>UnitBankName</t>
+  </si>
+  <si>
+    <t>UnitBankNo</t>
+  </si>
+  <si>
+    <t>IsUserAdded</t>
+  </si>
+  <si>
+    <t>[nvarchar(255)]</t>
+  </si>
+  <si>
+    <t>WhiteList</t>
+  </si>
+  <si>
+    <t>候选单位表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZiDianBiao</t>
+  </si>
+  <si>
+    <t>共同条款数据字典表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(600)]</t>
+  </si>
+  <si>
+    <t>(目前已废弃)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保密级别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为总体课题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(项目或课题)</t>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当前为课题的话，则存储项目ID,否则为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题的负责单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目方向代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件显示名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件源文件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件当前文件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为军队单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务职称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父阶段ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(300)]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核指标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(负责人或成员)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(项目或课题)用于表示项目角色或课题角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题总经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位常用名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位联系电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位保密级别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户帐号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为用户添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(当前保存的是 阶段目标与研究内容 )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(当前保存的是 阶段成果、考核指标及考核方式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WanChengNeiRong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前已不用了)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前用于保存 阶段目标与研究内容)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前用于保存 阶段成果、考核指标及考核方式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(会更新为承担单位数据)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(会更新数据,但是没怎么用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前为空，没怎么用)</t>
+  </si>
+  <si>
+    <t>(目前为空，没怎么用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeTongFuZeDanWeiChangYongMingCheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>合同负责单位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>合同负责单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位联系人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属地点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同经费管理模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题研究目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题研究内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题参加单位分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前已废弃，由课题参加单位分工表代替)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位联系人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题所属部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题所属地点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经费金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务职称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为项目负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨付条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经费金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段成果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标要求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>项目课题表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SecretLevel</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Type2</t>
-  </si>
-  <si>
-    <t>ParentID</t>
-  </si>
-  <si>
-    <t>UnitID</t>
-  </si>
-  <si>
-    <t>TotalTime</t>
-  </si>
-  <si>
-    <t>TotalMoney</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>DirectionCode</t>
-  </si>
-  <si>
-    <t>[Nvarchar(50)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(10)]</t>
-  </si>
-  <si>
-    <t>[NVARCHAR(10)]</t>
-  </si>
-  <si>
-    <t>ExtFileList</t>
-  </si>
-  <si>
-    <t>保密资质附件表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-  </si>
-  <si>
-    <t>ExtName</t>
-  </si>
-  <si>
-    <t>ExtType</t>
-  </si>
-  <si>
-    <t>SourceFileName</t>
-  </si>
-  <si>
-    <t>RealFileName</t>
-  </si>
-  <si>
-    <t>IsIgnore</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>[nvarchar(200)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(30)]</t>
-  </si>
-  <si>
-    <t>MoneyAndYear</t>
-  </si>
-  <si>
-    <t>经费预算表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>IDCard</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>AttachInfo</t>
-  </si>
-  <si>
-    <t>[nvarchar(5)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(20000)]</t>
-  </si>
-  <si>
-    <t>ProjectAndStep</t>
-  </si>
-  <si>
-    <t>课题阶段表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepID</t>
-  </si>
-  <si>
-    <t>StepContent</t>
-  </si>
-  <si>
-    <t>StepDest</t>
-  </si>
-  <si>
-    <t>StepTarget</t>
-  </si>
-  <si>
-    <t>StepResult</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>StepTime</t>
-  </si>
-  <si>
-    <t>StepMoney</t>
-  </si>
-  <si>
-    <t>StepIndex</t>
-  </si>
-  <si>
-    <t>项目阶段表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>人员角色分配表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonID</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>DisplayOrder</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>FlagName</t>
-  </si>
-  <si>
-    <t>NormalName</t>
-  </si>
-  <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>SecretQualification</t>
-  </si>
-  <si>
-    <t>单位表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitExt</t>
-  </si>
-  <si>
-    <t>单位帐号表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitBankUser</t>
-  </si>
-  <si>
-    <t>UnitBankName</t>
-  </si>
-  <si>
-    <t>UnitBankNo</t>
-  </si>
-  <si>
-    <t>IsUserAdded</t>
-  </si>
-  <si>
-    <t>[nvarchar(255)]</t>
-  </si>
-  <si>
-    <t>WhiteList</t>
-  </si>
-  <si>
-    <t>候选单位表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZiDianBiao</t>
-  </si>
-  <si>
-    <t>共同条款数据字典表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nvarchar(600)]</t>
-  </si>
-  <si>
-    <t>(目前已废弃)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保密级别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为总体课题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(项目或课题)</t>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如当前为课题的话，则存储项目ID,否则为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题的负责单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目总时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目总经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目方向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目方向代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件显示名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件源文件名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件当前文件名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为军队单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务职称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>父阶段ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nvarchar(300)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核指标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(负责人或成员)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(项目或课题)用于表示项目角色或课题角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题总经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位别名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位常用名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位联系电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位保密级别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户帐号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为用户添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(当前保存的是 阶段目标与研究内容 )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(当前保存的是 阶段成果、考核指标及考核方式)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WanChengNeiRong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前已不用了)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前用于保存 阶段目标与研究内容)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前用于保存 阶段成果、考核指标及考核方式)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(会更新为承担单位数据)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(会更新数据,但是没怎么用)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前为空，没怎么用)</t>
-  </si>
-  <si>
-    <t>(目前为空，没怎么用)</t>
+    <t>合同负责单位常用名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1777,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1949,7 +1957,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2014,7 +2022,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>402</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -2028,16 +2036,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>403</v>
       </c>
       <c r="E14" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -2048,16 +2053,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -2068,19 +2073,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2088,16 +2093,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2105,16 +2113,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2122,16 +2130,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2139,16 +2147,16 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2156,16 +2164,16 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2173,16 +2181,16 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>149</v>
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2190,16 +2198,16 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2207,16 +2215,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2224,16 +2232,16 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2241,16 +2249,16 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2258,16 +2266,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2275,16 +2283,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2292,16 +2300,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2309,16 +2317,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2326,16 +2334,16 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2343,10 +2351,10 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
         <v>61</v>
@@ -2360,10 +2368,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
@@ -2377,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
         <v>61</v>
@@ -2394,10 +2402,10 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
         <v>61</v>
@@ -2411,10 +2419,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
         <v>61</v>
@@ -2428,10 +2436,10 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -2445,10 +2453,10 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" t="s">
         <v>61</v>
@@ -2462,10 +2470,10 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
         <v>61</v>
@@ -2479,10 +2487,10 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
         <v>61</v>
@@ -2496,10 +2504,10 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
         <v>61</v>
@@ -2513,10 +2521,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" t="s">
         <v>61</v>
@@ -2530,10 +2538,10 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
         <v>61</v>
@@ -2547,10 +2555,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
         <v>61</v>
@@ -2564,10 +2572,10 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
         <v>61</v>
@@ -2581,10 +2589,10 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
         <v>61</v>
@@ -2598,10 +2606,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
         <v>61</v>
@@ -2615,10 +2623,10 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
         <v>61</v>
@@ -2632,10 +2640,10 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
         <v>61</v>
@@ -2649,27 +2657,27 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>56</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E52" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -2680,13 +2688,13 @@
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -2697,13 +2705,13 @@
         <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -2714,13 +2722,13 @@
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -2731,16 +2739,13 @@
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E56" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2751,13 +2756,16 @@
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F57" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -2768,13 +2776,13 @@
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2785,16 +2793,13 @@
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E59" t="s">
         <v>79</v>
-      </c>
-      <c r="F59" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2805,16 +2810,16 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
         <v>79</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2825,13 +2830,16 @@
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E61" t="s">
         <v>79</v>
+      </c>
+      <c r="F61" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -2842,10 +2850,10 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E62" t="s">
         <v>79</v>
@@ -2859,13 +2867,13 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -2876,30 +2884,30 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
         <v>77</v>
       </c>
-      <c r="D64" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D65" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -2910,10 +2918,10 @@
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
         <v>57</v>
@@ -2927,13 +2935,13 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -2944,13 +2952,13 @@
         <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -2961,13 +2969,13 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -2978,30 +2986,30 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
         <v>77</v>
       </c>
-      <c r="D71" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -3012,10 +3020,10 @@
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="E74" t="s">
         <v>57</v>
@@ -3029,13 +3037,13 @@
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -3046,10 +3054,10 @@
         <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E76" t="s">
         <v>61</v>
@@ -3063,13 +3071,13 @@
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E77" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -3080,30 +3088,30 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" t="s">
         <v>77</v>
       </c>
-      <c r="D78" t="s">
-        <v>206</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" t="s">
-        <v>148</v>
-      </c>
-      <c r="E80" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -3114,13 +3122,13 @@
         <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -3131,13 +3139,13 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -3148,13 +3156,13 @@
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -3165,13 +3173,13 @@
         <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -3182,10 +3190,10 @@
         <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D85" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E85" t="s">
         <v>111</v>
@@ -3199,10 +3207,10 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
         <v>111</v>
@@ -3216,13 +3224,13 @@
         <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D87" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E87" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -3233,13 +3241,13 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E88" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -3250,10 +3258,10 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E89" t="s">
         <v>78</v>
@@ -3267,13 +3275,13 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -3284,10 +3292,10 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E91" t="s">
         <v>61</v>
@@ -3301,13 +3309,13 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E92" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -3318,16 +3326,13 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F93" t="s">
-        <v>371</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -3338,13 +3343,16 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>111</v>
+      </c>
+      <c r="F94" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -3355,13 +3363,13 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E95" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -3372,30 +3380,30 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
         <v>77</v>
       </c>
-      <c r="D96" t="s">
-        <v>206</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>113</v>
-      </c>
-      <c r="B98" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -3406,13 +3414,13 @@
         <v>114</v>
       </c>
       <c r="C99" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="E99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -3423,10 +3431,10 @@
         <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D100" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E100" t="s">
         <v>116</v>
@@ -3440,13 +3448,13 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D101" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -3457,30 +3465,30 @@
         <v>114</v>
       </c>
       <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
         <v>77</v>
       </c>
-      <c r="D102" t="s">
-        <v>206</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -3491,10 +3499,10 @@
         <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="E105" t="s">
         <v>57</v>
@@ -3508,13 +3516,13 @@
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D106" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E106" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
@@ -3525,13 +3533,13 @@
         <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D107" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E107" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -3542,13 +3550,13 @@
         <v>119</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="E108" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -3559,30 +3567,30 @@
         <v>119</v>
       </c>
       <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
         <v>77</v>
       </c>
-      <c r="D109" t="s">
-        <v>206</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="D110" t="s">
+        <v>205</v>
+      </c>
+      <c r="E110" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111" t="s">
-        <v>122</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>148</v>
-      </c>
-      <c r="E111" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
@@ -3593,13 +3601,13 @@
         <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="E112" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -3610,13 +3618,13 @@
         <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E113" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -3627,13 +3635,13 @@
         <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="E114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -3644,13 +3652,13 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="E115" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -3661,13 +3669,13 @@
         <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -3678,30 +3686,30 @@
         <v>122</v>
       </c>
       <c r="C117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
         <v>77</v>
       </c>
-      <c r="D117" t="s">
-        <v>206</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="D118" t="s">
+        <v>205</v>
+      </c>
+      <c r="E118" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>128</v>
-      </c>
-      <c r="B119" t="s">
-        <v>129</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" t="s">
-        <v>148</v>
-      </c>
-      <c r="E119" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -3712,13 +3720,13 @@
         <v>129</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -3729,13 +3737,13 @@
         <v>129</v>
       </c>
       <c r="C121" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -3746,13 +3754,13 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E122" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -3763,13 +3771,13 @@
         <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D123" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -3780,30 +3788,30 @@
         <v>129</v>
       </c>
       <c r="C124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
         <v>77</v>
       </c>
-      <c r="D124" t="s">
-        <v>206</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D125" t="s">
+        <v>205</v>
+      </c>
+      <c r="E125" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
-        <v>130</v>
-      </c>
-      <c r="B126" t="s">
-        <v>135</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" t="s">
-        <v>148</v>
-      </c>
-      <c r="E126" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -3814,13 +3822,13 @@
         <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="E127" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -3831,13 +3839,13 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -3848,16 +3856,13 @@
         <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E129" t="s">
-        <v>127</v>
-      </c>
-      <c r="F129" t="s">
-        <v>396</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -3868,10 +3873,10 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>394</v>
+        <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E130" t="s">
         <v>127</v>
@@ -3888,16 +3893,16 @@
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="D131" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E131" t="s">
         <v>127</v>
       </c>
       <c r="F131" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -3908,13 +3913,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E132" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="F132" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -3925,30 +3933,30 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
         <v>77</v>
       </c>
-      <c r="D133" t="s">
-        <v>206</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D134" t="s">
+        <v>205</v>
+      </c>
+      <c r="E134" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" t="s">
-        <v>148</v>
-      </c>
-      <c r="E135" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -3959,13 +3967,13 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="E136" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -3976,13 +3984,13 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D137" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -3993,13 +4001,13 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="E138" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -4010,30 +4018,30 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" t="s">
         <v>77</v>
       </c>
-      <c r="D139" t="s">
-        <v>206</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="D140" t="s">
+        <v>205</v>
+      </c>
+      <c r="E140" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>117</v>
-      </c>
-      <c r="B141" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" t="s">
-        <v>148</v>
-      </c>
-      <c r="E141" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -4044,10 +4052,10 @@
         <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="E142" t="s">
         <v>57</v>
@@ -4061,13 +4069,13 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D143" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E143" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -4078,13 +4086,13 @@
         <v>139</v>
       </c>
       <c r="C144" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D144" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E144" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -4095,13 +4103,13 @@
         <v>139</v>
       </c>
       <c r="C145" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="E145" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -4112,30 +4120,30 @@
         <v>139</v>
       </c>
       <c r="C146" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>117</v>
+      </c>
+      <c r="B147" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" t="s">
         <v>77</v>
       </c>
-      <c r="D146" t="s">
-        <v>206</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="D147" t="s">
+        <v>205</v>
+      </c>
+      <c r="E147" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>140</v>
-      </c>
-      <c r="B148" t="s">
-        <v>141</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" t="s">
-        <v>148</v>
-      </c>
-      <c r="E148" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
@@ -4146,13 +4154,13 @@
         <v>141</v>
       </c>
       <c r="C149" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -4163,10 +4171,10 @@
         <v>141</v>
       </c>
       <c r="C150" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E150" t="s">
         <v>127</v>
@@ -4180,13 +4188,13 @@
         <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D151" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E151" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -4197,30 +4205,30 @@
         <v>141</v>
       </c>
       <c r="C152" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152" t="s">
+        <v>204</v>
+      </c>
+      <c r="E152" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" t="s">
         <v>77</v>
       </c>
-      <c r="D152" t="s">
-        <v>206</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D153" t="s">
+        <v>205</v>
+      </c>
+      <c r="E153" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
-        <v>143</v>
-      </c>
-      <c r="B154" t="s">
-        <v>144</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" t="s">
-        <v>148</v>
-      </c>
-      <c r="E154" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
@@ -4231,13 +4239,13 @@
         <v>144</v>
       </c>
       <c r="C155" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="E155" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -4248,10 +4256,10 @@
         <v>144</v>
       </c>
       <c r="C156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D156" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E156" t="s">
         <v>127</v>
@@ -4265,10 +4273,10 @@
         <v>144</v>
       </c>
       <c r="C157" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D157" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E157" t="s">
         <v>127</v>
@@ -4282,13 +4290,13 @@
         <v>144</v>
       </c>
       <c r="C158" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D158" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="E158" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
@@ -4299,97 +4307,114 @@
         <v>144</v>
       </c>
       <c r="C159" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" t="s">
+        <v>204</v>
+      </c>
+      <c r="E159" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>143</v>
+      </c>
+      <c r="B160" t="s">
+        <v>144</v>
+      </c>
+      <c r="C160" t="s">
         <v>77</v>
       </c>
-      <c r="D159" t="s">
-        <v>206</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D160" t="s">
+        <v>205</v>
+      </c>
+      <c r="E160" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
-        <v>326</v>
-      </c>
-      <c r="B161" t="s">
-        <v>327</v>
-      </c>
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" t="s">
-        <v>148</v>
-      </c>
-      <c r="E161" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" t="s">
         <v>326</v>
       </c>
-      <c r="B162" t="s">
-        <v>327</v>
-      </c>
       <c r="C162" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="E162" t="s">
-        <v>328</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" t="s">
         <v>326</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
+        <v>92</v>
+      </c>
+      <c r="D163" t="s">
+        <v>209</v>
+      </c>
+      <c r="E163" t="s">
         <v>327</v>
-      </c>
-      <c r="C163" t="s">
-        <v>93</v>
-      </c>
-      <c r="D163" t="s">
-        <v>211</v>
-      </c>
-      <c r="E163" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" t="s">
         <v>326</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>93</v>
+      </c>
+      <c r="D164" t="s">
+        <v>210</v>
+      </c>
+      <c r="E164" t="s">
         <v>327</v>
-      </c>
-      <c r="C164" t="s">
-        <v>56</v>
-      </c>
-      <c r="D164" t="s">
-        <v>205</v>
-      </c>
-      <c r="E164" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" t="s">
         <v>326</v>
       </c>
-      <c r="B165" t="s">
-        <v>327</v>
-      </c>
       <c r="C165" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" t="s">
+        <v>204</v>
+      </c>
+      <c r="E165" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" t="s">
         <v>77</v>
       </c>
-      <c r="D165" t="s">
-        <v>206</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="D166" t="s">
+        <v>205</v>
+      </c>
+      <c r="E166" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4440,33 +4465,33 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
         <v>245</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>246</v>
-      </c>
-      <c r="C2" t="s">
-        <v>247</v>
       </c>
       <c r="D2" t="s">
         <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
         <v>245</v>
       </c>
-      <c r="B3" t="s">
-        <v>246</v>
-      </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -4474,16 +4499,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
         <v>245</v>
       </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -4491,93 +4516,93 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
         <v>245</v>
       </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" t="s">
         <v>333</v>
-      </c>
-      <c r="E5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
         <v>245</v>
       </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
         <v>245</v>
       </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" t="s">
         <v>335</v>
-      </c>
-      <c r="E7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
         <v>245</v>
       </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -4585,16 +4610,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
         <v>245</v>
       </c>
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -4602,16 +4627,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
         <v>245</v>
       </c>
-      <c r="B11" t="s">
-        <v>246</v>
-      </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -4619,16 +4644,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" t="s">
         <v>245</v>
       </c>
-      <c r="B12" t="s">
-        <v>246</v>
-      </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
         <v>61</v>
@@ -4636,16 +4661,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
         <v>245</v>
       </c>
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -4653,16 +4678,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" t="s">
         <v>245</v>
       </c>
-      <c r="B14" t="s">
-        <v>246</v>
-      </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -4670,121 +4695,121 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" t="s">
         <v>263</v>
       </c>
-      <c r="B16" t="s">
-        <v>264</v>
-      </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" t="s">
         <v>263</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>264</v>
       </c>
-      <c r="C17" t="s">
-        <v>265</v>
-      </c>
       <c r="D17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" t="s">
         <v>263</v>
       </c>
-      <c r="B18" t="s">
-        <v>264</v>
-      </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" t="s">
         <v>263</v>
       </c>
-      <c r="B19" t="s">
-        <v>264</v>
-      </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" t="s">
         <v>263</v>
       </c>
-      <c r="B20" t="s">
-        <v>264</v>
-      </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" t="s">
         <v>263</v>
       </c>
-      <c r="B21" t="s">
-        <v>264</v>
-      </c>
       <c r="C21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
         <v>263</v>
       </c>
-      <c r="B22" t="s">
-        <v>264</v>
-      </c>
       <c r="C22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -4792,87 +4817,87 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
         <v>263</v>
       </c>
-      <c r="B23" t="s">
-        <v>264</v>
-      </c>
       <c r="C23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" t="s">
         <v>271</v>
-      </c>
-      <c r="D23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" t="s">
         <v>274</v>
       </c>
-      <c r="B25" t="s">
-        <v>275</v>
-      </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D25" t="s">
         <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s">
         <v>274</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>275</v>
       </c>
-      <c r="C26" t="s">
-        <v>276</v>
-      </c>
       <c r="D26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" t="s">
         <v>274</v>
       </c>
-      <c r="B27" t="s">
-        <v>275</v>
-      </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" t="s">
         <v>274</v>
       </c>
-      <c r="B28" t="s">
-        <v>275</v>
-      </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
@@ -4880,16 +4905,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" t="s">
         <v>274</v>
       </c>
-      <c r="B29" t="s">
-        <v>275</v>
-      </c>
       <c r="C29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -4897,50 +4922,50 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
         <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -4948,16 +4973,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E34" t="s">
         <v>64</v>
@@ -4965,16 +4990,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>
@@ -4982,33 +5007,33 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
@@ -5016,16 +5041,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s">
         <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
         <v>64</v>
@@ -5033,16 +5058,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E39" t="s">
         <v>64</v>
@@ -5050,181 +5075,181 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s">
         <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" t="s">
         <v>290</v>
       </c>
-      <c r="B44" t="s">
-        <v>291</v>
-      </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D44" t="s">
         <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" t="s">
         <v>290</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>291</v>
       </c>
-      <c r="C45" t="s">
-        <v>292</v>
-      </c>
       <c r="D45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" t="s">
         <v>290</v>
       </c>
-      <c r="B46" t="s">
-        <v>291</v>
-      </c>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
         <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" t="s">
         <v>290</v>
       </c>
-      <c r="B47" t="s">
-        <v>291</v>
-      </c>
       <c r="C47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E47" t="s">
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" t="s">
         <v>290</v>
       </c>
-      <c r="B48" t="s">
-        <v>291</v>
-      </c>
       <c r="C48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E48" t="s">
         <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" t="s">
         <v>290</v>
       </c>
-      <c r="B49" t="s">
-        <v>291</v>
-      </c>
       <c r="C49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
         <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B50" t="s">
         <v>290</v>
       </c>
-      <c r="B50" t="s">
-        <v>291</v>
-      </c>
       <c r="C50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E50" t="s">
         <v>63</v>
@@ -5232,50 +5257,50 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" t="s">
         <v>148</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" t="s">
         <v>298</v>
       </c>
-      <c r="B54" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" t="s">
-        <v>299</v>
-      </c>
       <c r="D54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -5283,96 +5308,96 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
         <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E56" t="s">
         <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E57" t="s">
         <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E58" t="s">
         <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E59" t="s">
         <v>63</v>
@@ -5380,16 +5405,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E60" t="s">
         <v>60</v>
@@ -5397,107 +5422,107 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" t="s">
         <v>303</v>
       </c>
-      <c r="B62" t="s">
-        <v>304</v>
-      </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
         <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" t="s">
         <v>303</v>
       </c>
-      <c r="B63" t="s">
-        <v>304</v>
-      </c>
       <c r="C63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" t="s">
         <v>303</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>304</v>
       </c>
-      <c r="C64" t="s">
-        <v>305</v>
-      </c>
       <c r="D64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s">
         <v>303</v>
       </c>
-      <c r="B65" t="s">
-        <v>304</v>
-      </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
         <v>59</v>
       </c>
       <c r="F65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" t="s">
         <v>303</v>
       </c>
-      <c r="B66" t="s">
-        <v>304</v>
-      </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D66" t="s">
+        <v>371</v>
+      </c>
+      <c r="E66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" t="s">
         <v>372</v>
-      </c>
-      <c r="E66" t="s">
-        <v>261</v>
-      </c>
-      <c r="F66" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" t="s">
         <v>303</v>
       </c>
-      <c r="B67" t="s">
-        <v>304</v>
-      </c>
       <c r="C67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E67" t="s">
         <v>61</v>
@@ -5505,16 +5530,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" t="s">
         <v>303</v>
       </c>
-      <c r="B68" t="s">
-        <v>304</v>
-      </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E68" t="s">
         <v>60</v>
@@ -5522,16 +5547,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" t="s">
         <v>303</v>
       </c>
-      <c r="B69" t="s">
-        <v>304</v>
-      </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E69" t="s">
         <v>63</v>
@@ -5539,33 +5564,33 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" t="s">
         <v>303</v>
       </c>
-      <c r="B70" t="s">
-        <v>304</v>
-      </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" t="s">
         <v>303</v>
       </c>
-      <c r="B71" t="s">
-        <v>304</v>
-      </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E71" t="s">
         <v>60</v>
@@ -5573,33 +5598,33 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D73" t="s">
         <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" t="s">
         <v>309</v>
       </c>
-      <c r="B74" t="s">
-        <v>316</v>
-      </c>
-      <c r="C74" t="s">
-        <v>310</v>
-      </c>
       <c r="D74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E74" t="s">
         <v>61</v>
@@ -5607,56 +5632,56 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E76" t="s">
         <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E77" t="s">
         <v>61</v>
@@ -5664,282 +5689,282 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E78" t="s">
         <v>61</v>
       </c>
       <c r="F78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E80" t="s">
         <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F81" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" t="s">
         <v>317</v>
       </c>
-      <c r="B83" t="s">
-        <v>318</v>
-      </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" t="s">
         <v>148</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B84" t="s">
         <v>317</v>
       </c>
-      <c r="B84" t="s">
-        <v>318</v>
-      </c>
       <c r="C84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" t="s">
         <v>317</v>
       </c>
-      <c r="B85" t="s">
-        <v>318</v>
-      </c>
       <c r="C85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E85" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
         <v>317</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>318</v>
       </c>
-      <c r="C86" t="s">
-        <v>319</v>
-      </c>
       <c r="D86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>316</v>
+      </c>
+      <c r="B87" t="s">
         <v>317</v>
       </c>
-      <c r="B87" t="s">
-        <v>318</v>
-      </c>
       <c r="C87" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" t="s">
         <v>317</v>
       </c>
-      <c r="B88" t="s">
-        <v>318</v>
-      </c>
       <c r="C88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E88" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B89" t="s">
         <v>317</v>
       </c>
-      <c r="B89" t="s">
-        <v>318</v>
-      </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E89" t="s">
         <v>60</v>
       </c>
       <c r="F89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>323</v>
+      </c>
+      <c r="B91" t="s">
         <v>324</v>
       </c>
-      <c r="B91" t="s">
-        <v>325</v>
-      </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D91" t="s">
         <v>148</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>323</v>
+      </c>
+      <c r="B92" t="s">
         <v>324</v>
       </c>
-      <c r="B92" t="s">
-        <v>325</v>
-      </c>
       <c r="C92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
+        <v>323</v>
+      </c>
+      <c r="B93" t="s">
         <v>324</v>
       </c>
-      <c r="B93" t="s">
-        <v>325</v>
-      </c>
       <c r="C93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
+++ b/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="407">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1402,6 +1402,18 @@
   </si>
   <si>
     <t>合同负责单位常用名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiBaoMiDengJi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题保密等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目标已废弃)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1785,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2722,10 +2734,10 @@
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="E55" t="s">
         <v>80</v>
@@ -2739,13 +2751,13 @@
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2756,16 +2768,13 @@
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -2776,13 +2785,16 @@
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F58" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2793,13 +2805,13 @@
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2810,16 +2822,13 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E60" t="s">
         <v>79</v>
-      </c>
-      <c r="F60" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2830,10 +2839,10 @@
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E61" t="s">
         <v>79</v>
@@ -2850,13 +2859,16 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E62" t="s">
         <v>79</v>
+      </c>
+      <c r="F62" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -2867,10 +2879,10 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E63" t="s">
         <v>79</v>
@@ -2884,13 +2896,13 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -2901,30 +2913,30 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
         <v>77</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>205</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -2935,10 +2947,10 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
         <v>57</v>
@@ -2952,13 +2964,13 @@
         <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -2969,13 +2981,13 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -2986,13 +2998,13 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -3003,30 +3015,30 @@
         <v>86</v>
       </c>
       <c r="C72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
         <v>77</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>205</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -3037,10 +3049,10 @@
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
         <v>57</v>
@@ -3054,13 +3066,13 @@
         <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -3071,10 +3083,10 @@
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E77" t="s">
         <v>61</v>
@@ -3088,13 +3100,13 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -3105,30 +3117,30 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
         <v>77</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>205</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>148</v>
-      </c>
-      <c r="E81" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -3139,13 +3151,13 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="E82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -3156,13 +3168,13 @@
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -3173,13 +3185,13 @@
         <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -3190,13 +3202,13 @@
         <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -3207,10 +3219,10 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E86" t="s">
         <v>111</v>
@@ -3224,10 +3236,10 @@
         <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E87" t="s">
         <v>111</v>
@@ -3241,13 +3253,13 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E88" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -3258,13 +3270,13 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E89" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -3275,10 +3287,10 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
         <v>78</v>
@@ -3292,13 +3304,13 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -3309,10 +3321,10 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E92" t="s">
         <v>61</v>
@@ -3326,13 +3338,13 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E93" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -3343,16 +3355,13 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E94" t="s">
-        <v>111</v>
-      </c>
-      <c r="F94" t="s">
-        <v>370</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -3363,13 +3372,16 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>111</v>
+      </c>
+      <c r="F95" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -3380,13 +3392,13 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="E96" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
@@ -3397,30 +3409,30 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
         <v>77</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>205</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" t="s">
-        <v>148</v>
-      </c>
-      <c r="E99" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -3431,13 +3443,13 @@
         <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -3448,10 +3460,10 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E101" t="s">
         <v>116</v>
@@ -3465,13 +3477,13 @@
         <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D102" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
@@ -3482,30 +3494,30 @@
         <v>114</v>
       </c>
       <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
         <v>77</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>205</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>117</v>
-      </c>
-      <c r="B105" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" t="s">
-        <v>148</v>
-      </c>
-      <c r="E105" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -3516,10 +3528,10 @@
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E106" t="s">
         <v>57</v>
@@ -3533,13 +3545,13 @@
         <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D107" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -3550,13 +3562,13 @@
         <v>119</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E108" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -3567,13 +3579,13 @@
         <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="E109" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
@@ -3584,30 +3596,30 @@
         <v>119</v>
       </c>
       <c r="C110" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
         <v>77</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>205</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" t="s">
-        <v>148</v>
-      </c>
-      <c r="E112" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -3618,13 +3630,13 @@
         <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="E113" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -3635,13 +3647,13 @@
         <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -3652,13 +3664,13 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D115" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="E115" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -3669,13 +3681,13 @@
         <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="E116" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -3686,13 +3698,13 @@
         <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="D117" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -3703,30 +3715,30 @@
         <v>122</v>
       </c>
       <c r="C118" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" t="s">
+        <v>204</v>
+      </c>
+      <c r="E118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
         <v>77</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>205</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" t="s">
-        <v>148</v>
-      </c>
-      <c r="E120" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -3737,13 +3749,13 @@
         <v>129</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -3754,13 +3766,13 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -3771,13 +3783,13 @@
         <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -3788,13 +3800,13 @@
         <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D124" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="E124" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -3805,30 +3817,30 @@
         <v>129</v>
       </c>
       <c r="C125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" t="s">
         <v>77</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>205</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E126" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" t="s">
-        <v>148</v>
-      </c>
-      <c r="E127" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -3839,13 +3851,13 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="E128" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -3856,13 +3868,13 @@
         <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E129" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -3873,16 +3885,13 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E130" t="s">
-        <v>127</v>
-      </c>
-      <c r="F130" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -3893,16 +3902,16 @@
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>393</v>
+        <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E131" t="s">
         <v>127</v>
       </c>
       <c r="F131" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -3913,16 +3922,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E132" t="s">
         <v>127</v>
       </c>
       <c r="F132" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -3933,13 +3942,16 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="E133" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="F133" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -3950,30 +3962,30 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>130</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
         <v>77</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>205</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E135" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" t="s">
-        <v>148</v>
-      </c>
-      <c r="E136" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -3984,13 +3996,16 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="E137" t="s">
-        <v>60</v>
+        <v>110</v>
+      </c>
+      <c r="F137" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -4001,13 +4016,16 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D138" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E138" t="s">
-        <v>127</v>
+        <v>60</v>
+      </c>
+      <c r="F138" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -4018,13 +4036,16 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D139" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="E139" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="F139" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
@@ -4035,30 +4056,36 @@
         <v>137</v>
       </c>
       <c r="C140" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" t="s">
+        <v>65</v>
+      </c>
+      <c r="F140" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" t="s">
         <v>77</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>205</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E141" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>117</v>
-      </c>
-      <c r="B142" t="s">
-        <v>139</v>
-      </c>
-      <c r="C142" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" t="s">
-        <v>148</v>
-      </c>
-      <c r="E142" t="s">
-        <v>57</v>
+      <c r="F141" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
@@ -4069,10 +4096,10 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E143" t="s">
         <v>57</v>
@@ -4086,13 +4113,13 @@
         <v>139</v>
       </c>
       <c r="C144" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E144" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -4103,13 +4130,13 @@
         <v>139</v>
       </c>
       <c r="C145" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E145" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -4120,13 +4147,13 @@
         <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D146" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="E146" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -4137,30 +4164,30 @@
         <v>139</v>
       </c>
       <c r="C147" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" t="s">
+        <v>204</v>
+      </c>
+      <c r="E147" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>117</v>
+      </c>
+      <c r="B148" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148" t="s">
         <v>77</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>205</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E148" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
-        <v>140</v>
-      </c>
-      <c r="B149" t="s">
-        <v>141</v>
-      </c>
-      <c r="C149" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" t="s">
-        <v>148</v>
-      </c>
-      <c r="E149" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -4171,13 +4198,13 @@
         <v>141</v>
       </c>
       <c r="C150" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="E150" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
@@ -4188,10 +4215,10 @@
         <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E151" t="s">
         <v>127</v>
@@ -4205,13 +4232,13 @@
         <v>141</v>
       </c>
       <c r="C152" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D152" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E152" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
@@ -4222,30 +4249,30 @@
         <v>141</v>
       </c>
       <c r="C153" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" t="s">
+        <v>204</v>
+      </c>
+      <c r="E153" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" t="s">
+        <v>141</v>
+      </c>
+      <c r="C154" t="s">
         <v>77</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D154" t="s">
         <v>205</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E154" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
-        <v>143</v>
-      </c>
-      <c r="B155" t="s">
-        <v>144</v>
-      </c>
-      <c r="C155" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" t="s">
-        <v>148</v>
-      </c>
-      <c r="E155" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -4256,13 +4283,13 @@
         <v>144</v>
       </c>
       <c r="C156" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="E156" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
@@ -4273,10 +4300,10 @@
         <v>144</v>
       </c>
       <c r="C157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E157" t="s">
         <v>127</v>
@@ -4290,10 +4317,10 @@
         <v>144</v>
       </c>
       <c r="C158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D158" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E158" t="s">
         <v>127</v>
@@ -4307,13 +4334,13 @@
         <v>144</v>
       </c>
       <c r="C159" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D159" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E159" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
@@ -4324,30 +4351,30 @@
         <v>144</v>
       </c>
       <c r="C160" t="s">
+        <v>56</v>
+      </c>
+      <c r="D160" t="s">
+        <v>204</v>
+      </c>
+      <c r="E160" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161" t="s">
+        <v>144</v>
+      </c>
+      <c r="C161" t="s">
         <v>77</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>205</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E161" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
-        <v>325</v>
-      </c>
-      <c r="B162" t="s">
-        <v>326</v>
-      </c>
-      <c r="C162" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" t="s">
-        <v>148</v>
-      </c>
-      <c r="E162" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
@@ -4358,13 +4385,13 @@
         <v>326</v>
       </c>
       <c r="C163" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E163" t="s">
-        <v>327</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
@@ -4375,10 +4402,10 @@
         <v>326</v>
       </c>
       <c r="C164" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E164" t="s">
         <v>327</v>
@@ -4392,13 +4419,13 @@
         <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D165" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E165" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
@@ -4409,12 +4436,29 @@
         <v>326</v>
       </c>
       <c r="C166" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" t="s">
+        <v>204</v>
+      </c>
+      <c r="E166" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>325</v>
+      </c>
+      <c r="B167" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" t="s">
         <v>77</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>205</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E167" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
+++ b/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="421">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1414,6 +1414,62 @@
   </si>
   <si>
     <t>(目标已废弃)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题节点经费表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位节点经费表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiJieDianJingFeiBiao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DanWeiJieDianJingFeiBiao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoFuBianHao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费拨付ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiBianHao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JingFei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DanWeiMingCheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(300)]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1797,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2905,7 +2961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2922,7 +2978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2939,7 +2995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -2955,8 +3011,11 @@
       <c r="E68" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -2972,8 +3031,11 @@
       <c r="E69" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F69" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -2989,8 +3051,11 @@
       <c r="E70" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F70" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3071,11 @@
       <c r="E71" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F71" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3023,8 +3091,11 @@
       <c r="E72" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F72" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -3040,8 +3111,11 @@
       <c r="E73" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3057,8 +3131,11 @@
       <c r="E75" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3074,8 +3151,11 @@
       <c r="E76" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F76" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3091,8 +3171,11 @@
       <c r="E77" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3108,8 +3191,11 @@
       <c r="E78" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F78" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -3125,8 +3211,11 @@
       <c r="E79" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F79" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -3141,6 +3230,9 @@
       </c>
       <c r="E80" t="s">
         <v>62</v>
+      </c>
+      <c r="F80" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -3622,7 +3714,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -3639,7 +3731,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -3656,7 +3748,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -3673,7 +3765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -3690,7 +3782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3707,7 +3799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -3724,7 +3816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3741,7 +3833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -3757,8 +3849,11 @@
       <c r="E121" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F121" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -3774,8 +3869,11 @@
       <c r="E122" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F122" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -3791,8 +3889,11 @@
       <c r="E123" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F123" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3808,8 +3909,11 @@
       <c r="E124" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F124" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -3825,8 +3929,11 @@
       <c r="E125" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F125" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3842,8 +3949,11 @@
       <c r="E126" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F126" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -4459,6 +4569,210 @@
         <v>205</v>
       </c>
       <c r="E167" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>409</v>
+      </c>
+      <c r="B169" t="s">
+        <v>407</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>148</v>
+      </c>
+      <c r="E169" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>409</v>
+      </c>
+      <c r="B170" t="s">
+        <v>407</v>
+      </c>
+      <c r="C170" t="s">
+        <v>411</v>
+      </c>
+      <c r="D170" t="s">
+        <v>412</v>
+      </c>
+      <c r="E170" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>409</v>
+      </c>
+      <c r="B171" t="s">
+        <v>407</v>
+      </c>
+      <c r="C171" t="s">
+        <v>413</v>
+      </c>
+      <c r="D171" t="s">
+        <v>414</v>
+      </c>
+      <c r="E171" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>409</v>
+      </c>
+      <c r="B172" t="s">
+        <v>407</v>
+      </c>
+      <c r="C172" t="s">
+        <v>415</v>
+      </c>
+      <c r="D172" t="s">
+        <v>416</v>
+      </c>
+      <c r="E172" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>409</v>
+      </c>
+      <c r="B173" t="s">
+        <v>407</v>
+      </c>
+      <c r="C173" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>409</v>
+      </c>
+      <c r="B174" t="s">
+        <v>407</v>
+      </c>
+      <c r="C174" t="s">
+        <v>77</v>
+      </c>
+      <c r="D174" t="s">
+        <v>205</v>
+      </c>
+      <c r="E174" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>410</v>
+      </c>
+      <c r="B176" t="s">
+        <v>408</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>148</v>
+      </c>
+      <c r="E176" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>410</v>
+      </c>
+      <c r="B177" t="s">
+        <v>408</v>
+      </c>
+      <c r="C177" t="s">
+        <v>413</v>
+      </c>
+      <c r="D177" t="s">
+        <v>414</v>
+      </c>
+      <c r="E177" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>410</v>
+      </c>
+      <c r="B178" t="s">
+        <v>408</v>
+      </c>
+      <c r="C178" t="s">
+        <v>418</v>
+      </c>
+      <c r="D178" t="s">
+        <v>419</v>
+      </c>
+      <c r="E178" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>410</v>
+      </c>
+      <c r="B179" t="s">
+        <v>408</v>
+      </c>
+      <c r="C179" t="s">
+        <v>415</v>
+      </c>
+      <c r="D179" t="s">
+        <v>416</v>
+      </c>
+      <c r="E179" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>410</v>
+      </c>
+      <c r="B180" t="s">
+        <v>408</v>
+      </c>
+      <c r="C180" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180" t="s">
+        <v>204</v>
+      </c>
+      <c r="E180" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>410</v>
+      </c>
+      <c r="B181" t="s">
+        <v>408</v>
+      </c>
+      <c r="C181" t="s">
+        <v>77</v>
+      </c>
+      <c r="D181" t="s">
+        <v>205</v>
+      </c>
+      <c r="E181" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
+++ b/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="421">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1853,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4699,10 +4699,10 @@
         <v>408</v>
       </c>
       <c r="C177" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D177" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E177" t="s">
         <v>57</v>
@@ -4716,13 +4716,13 @@
         <v>408</v>
       </c>
       <c r="C178" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D178" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E178" t="s">
-        <v>420</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -4733,13 +4733,13 @@
         <v>408</v>
       </c>
       <c r="C179" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D179" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E179" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
@@ -4750,13 +4750,13 @@
         <v>408</v>
       </c>
       <c r="C180" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
       <c r="D180" t="s">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="E180" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
@@ -4767,12 +4767,29 @@
         <v>408</v>
       </c>
       <c r="C181" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" t="s">
+        <v>204</v>
+      </c>
+      <c r="E181" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>410</v>
+      </c>
+      <c r="B182" t="s">
+        <v>408</v>
+      </c>
+      <c r="C182" t="s">
         <v>77</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>205</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E182" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
+++ b/Code/ProjectReporterPlugin/合同书与建议书数据表汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="427">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -237,423 +237,1240 @@
     <t>KeTiCanJiaDanWeiFenGong</t>
   </si>
   <si>
+    <t>KeTiFuZeDanWeiTongXunDiZhi</t>
+  </si>
+  <si>
+    <t>KeTiFuZeDanWeiLianXiRen</t>
+  </si>
+  <si>
+    <t>KeTiFuZeDanWeiLianXiRenDianHua</t>
+  </si>
+  <si>
+    <t>KeTiSuoShuBuMen</t>
+  </si>
+  <si>
+    <t>KeTiSuoShuDiDian</t>
+  </si>
+  <si>
+    <t>ModifyTime</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>[nvarchar(700)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(701)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(702)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(703)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(704)]</t>
+  </si>
+  <si>
+    <t>课题表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiJingFeiNianDuBiao</t>
+  </si>
+  <si>
+    <t>课题年度经费表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiBianHao</t>
+  </si>
+  <si>
+    <t>NianDu</t>
+  </si>
+  <si>
+    <t>JingFei</t>
+  </si>
+  <si>
+    <t>KeTiYuSuanBiao</t>
+  </si>
+  <si>
+    <t>课题经费预算表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MingCheng</t>
+  </si>
+  <si>
+    <t>ShuJu</t>
+  </si>
+  <si>
+    <t>RenYuanBiao</t>
+  </si>
+  <si>
+    <t>人员信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XingMing</t>
+  </si>
+  <si>
+    <t>ShengRi</t>
+  </si>
+  <si>
+    <t>XingBie</t>
+  </si>
+  <si>
+    <t>ZhiCheng</t>
+  </si>
+  <si>
+    <t>ZhuanYe</t>
+  </si>
+  <si>
+    <t>GongZuoDanWei</t>
+  </si>
+  <si>
+    <t>MeiNianTouRuShiJian</t>
+  </si>
+  <si>
+    <t>RenWuFenGong</t>
+  </si>
+  <si>
+    <t>ShenFenZhengHao</t>
+  </si>
+  <si>
+    <t>DianHua</t>
+  </si>
+  <si>
+    <t>ShouJi</t>
+  </si>
+  <si>
+    <t>KeTiBiaoHao</t>
+  </si>
+  <si>
+    <t>ZhiWu</t>
+  </si>
+  <si>
+    <t>ShiXiangMuFuZeRen</t>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>YuSuanBiao</t>
+  </si>
+  <si>
+    <t>经费预算表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenWuBiao</t>
+  </si>
+  <si>
+    <t>DanWeiMing</t>
+  </si>
+  <si>
+    <t>任务分工表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(500)]</t>
+  </si>
+  <si>
+    <t>BoFuBiao</t>
+  </si>
+  <si>
+    <t>经费拨付表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoFuTiaoJian</t>
+  </si>
+  <si>
+    <t>YuJiShiJian</t>
+  </si>
+  <si>
+    <t>JingFeiJinQian</t>
+  </si>
+  <si>
+    <t>BeiZhu</t>
+  </si>
+  <si>
+    <t>nvarchar(700)</t>
+  </si>
+  <si>
+    <t>DanWeiJingFeiNianDuBiao</t>
+  </si>
+  <si>
+    <t>单位年度经费表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JinDuBiao</t>
+  </si>
+  <si>
+    <t>JieDian</t>
+  </si>
+  <si>
+    <t>ShiJian</t>
+  </si>
+  <si>
+    <t>JieDuanMuBiao</t>
+  </si>
+  <si>
+    <t>JieDuanChengGuo</t>
+  </si>
+  <si>
+    <t>研究进度安排表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiShuBiao</t>
+  </si>
+  <si>
+    <t>技术要求表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeiRong</t>
+  </si>
+  <si>
+    <t>课题单位任务分工表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TiJiaoYaoQiuBiao</t>
+  </si>
+  <si>
+    <t>提交要求表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YaoQiu</t>
+  </si>
+  <si>
+    <t>ZhiBiaoBiao</t>
+  </si>
+  <si>
+    <t>指标名称，要求，考核方式表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhiBiaoMingCheng</t>
+  </si>
+  <si>
+    <t>ZhiBiaoYaoQiu</t>
+  </si>
+  <si>
+    <t>KaoHeFangShi</t>
+  </si>
+  <si>
+    <t>记录ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托_单位名称</t>
+  </si>
+  <si>
+    <t>委托_单位性质</t>
+  </si>
+  <si>
+    <t>委托_法定代表人</t>
+  </si>
+  <si>
+    <t>委托_联系人</t>
+  </si>
+  <si>
+    <t>委托_联系电话</t>
+  </si>
+  <si>
+    <t>委托_通信地址</t>
+  </si>
+  <si>
+    <t>委托_邮政编码</t>
+  </si>
+  <si>
+    <t>委托_组织机构代码</t>
+  </si>
+  <si>
+    <t>委托_税号</t>
+  </si>
+  <si>
+    <t>委托_开户名称</t>
+  </si>
+  <si>
+    <t>委托_开户银行</t>
+  </si>
+  <si>
+    <t>委托_银行账号</t>
+  </si>
+  <si>
+    <t>委托_财务负责人</t>
+  </si>
+  <si>
+    <t>承研_单位名称</t>
+  </si>
+  <si>
+    <t>承研_单位性质</t>
+  </si>
+  <si>
+    <t>承研_法定代表人</t>
+  </si>
+  <si>
+    <t>承研_联系人</t>
+  </si>
+  <si>
+    <t>承研_联系电话</t>
+  </si>
+  <si>
+    <t>承研_通信地址</t>
+  </si>
+  <si>
+    <t>承研_邮政编码</t>
+  </si>
+  <si>
+    <t>承研_组织机构代码</t>
+  </si>
+  <si>
+    <t>承研_税号</t>
+  </si>
+  <si>
+    <t>承研_开户名称</t>
+  </si>
+  <si>
+    <t>承研_开户银行</t>
+  </si>
+  <si>
+    <t>承研_银行账号</t>
+  </si>
+  <si>
+    <t>承研_财务负责人</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同密级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同密期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责人身份证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责人电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同价款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位联系人电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同经费管理模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题研究目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题研究内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题参加单位分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前已废弃，由课题参加单位分工表代替)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位联系人电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题所属部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题所属地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务职称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为项目负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨付条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段成果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>项目课题表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SecretLevel</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type2</t>
+  </si>
+  <si>
+    <t>ParentID</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>TotalTime</t>
+  </si>
+  <si>
+    <t>TotalMoney</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>DirectionCode</t>
+  </si>
+  <si>
+    <t>[Nvarchar(50)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(10)]</t>
+  </si>
+  <si>
+    <t>[NVARCHAR(10)]</t>
+  </si>
+  <si>
+    <t>ExtFileList</t>
+  </si>
+  <si>
+    <t>保密资质附件表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>ExtName</t>
+  </si>
+  <si>
+    <t>ExtType</t>
+  </si>
+  <si>
+    <t>SourceFileName</t>
+  </si>
+  <si>
+    <t>RealFileName</t>
+  </si>
+  <si>
+    <t>IsIgnore</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>[nvarchar(200)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(30)]</t>
+  </si>
+  <si>
+    <t>MoneyAndYear</t>
+  </si>
+  <si>
+    <t>经费预算表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>IDCard</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>AttachInfo</t>
+  </si>
+  <si>
+    <t>[nvarchar(5)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(20000)]</t>
+  </si>
+  <si>
+    <t>ProjectAndStep</t>
+  </si>
+  <si>
+    <t>课题阶段表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepID</t>
+  </si>
+  <si>
+    <t>StepContent</t>
+  </si>
+  <si>
+    <t>StepDest</t>
+  </si>
+  <si>
+    <t>StepTarget</t>
+  </si>
+  <si>
+    <t>StepResult</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>StepTime</t>
+  </si>
+  <si>
+    <t>StepMoney</t>
+  </si>
+  <si>
+    <t>StepIndex</t>
+  </si>
+  <si>
+    <t>项目阶段表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>人员角色分配表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonID</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>DisplayOrder</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>FlagName</t>
+  </si>
+  <si>
+    <t>NormalName</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>SecretQualification</t>
+  </si>
+  <si>
+    <t>单位表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitExt</t>
+  </si>
+  <si>
+    <t>单位帐号表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitBankUser</t>
+  </si>
+  <si>
+    <t>UnitBankName</t>
+  </si>
+  <si>
+    <t>UnitBankNo</t>
+  </si>
+  <si>
+    <t>IsUserAdded</t>
+  </si>
+  <si>
+    <t>[nvarchar(255)]</t>
+  </si>
+  <si>
+    <t>WhiteList</t>
+  </si>
+  <si>
+    <t>候选单位表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZiDianBiao</t>
+  </si>
+  <si>
+    <t>共同条款数据字典表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(600)]</t>
+  </si>
+  <si>
+    <t>(目前已废弃)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保密级别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为总体课题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(项目或课题)</t>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当前为课题的话，则存储项目ID,否则为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题的负责单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目方向代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件显示名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件源文件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件当前文件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为军队单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务职称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父阶段ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(300)]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核指标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(负责人或成员)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(项目或课题)用于表示项目角色或课题角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题总经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员身份证号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位常用名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位联系电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位保密级别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户帐号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为用户添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(当前保存的是 阶段目标与研究内容 )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(当前保存的是 阶段成果、考核指标及考核方式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WanChengNeiRong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前已不用了)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前用于保存 阶段目标与研究内容)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前用于保存 阶段成果、考核指标及考核方式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(会更新为承担单位数据)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(会更新数据,但是没怎么用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目前为空，没怎么用)</t>
+  </si>
+  <si>
+    <t>(目前为空，没怎么用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeTongFuZeDanWeiChangYongMingCheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位常用名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiBaoMiDengJi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题保密等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(目标已废弃)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题节点经费表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位节点经费表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiJieDianJingFeiBiao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DanWeiJieDianJingFeiBiao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoFuBianHao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费拨付ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiBianHao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JingFei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DanWeiMingCheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(300)]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>KeTiFuZeDanWei</t>
-  </si>
-  <si>
-    <t>KeTiFuZeDanWeiTongXunDiZhi</t>
-  </si>
-  <si>
-    <t>KeTiFuZeDanWeiLianXiRen</t>
-  </si>
-  <si>
-    <t>KeTiFuZeDanWeiLianXiRenDianHua</t>
-  </si>
-  <si>
-    <t>KeTiSuoShuBuMen</t>
-  </si>
-  <si>
-    <t>KeTiSuoShuDiDian</t>
-  </si>
-  <si>
-    <t>ModifyTime</t>
-  </si>
-  <si>
-    <t>nvarchar</t>
-  </si>
-  <si>
-    <t>[nvarchar(700)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(701)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(702)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(703)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(704)]</t>
-  </si>
-  <si>
-    <t>课题表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeTiJingFeiNianDuBiao</t>
-  </si>
-  <si>
-    <t>课题年度经费表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeTiBianHao</t>
-  </si>
-  <si>
-    <t>NianDu</t>
-  </si>
-  <si>
-    <t>JingFei</t>
-  </si>
-  <si>
-    <t>KeTiYuSuanBiao</t>
-  </si>
-  <si>
-    <t>课题经费预算表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MingCheng</t>
-  </si>
-  <si>
-    <t>ShuJu</t>
-  </si>
-  <si>
-    <t>RenYuanBiao</t>
-  </si>
-  <si>
-    <t>人员信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XingMing</t>
-  </si>
-  <si>
-    <t>ShengRi</t>
-  </si>
-  <si>
-    <t>XingBie</t>
-  </si>
-  <si>
-    <t>ZhiCheng</t>
-  </si>
-  <si>
-    <t>ZhuanYe</t>
-  </si>
-  <si>
-    <t>GongZuoDanWei</t>
-  </si>
-  <si>
-    <t>MeiNianTouRuShiJian</t>
-  </si>
-  <si>
-    <t>RenWuFenGong</t>
-  </si>
-  <si>
-    <t>ShenFenZhengHao</t>
-  </si>
-  <si>
-    <t>DianHua</t>
-  </si>
-  <si>
-    <t>ShouJi</t>
-  </si>
-  <si>
-    <t>KeTiBiaoHao</t>
-  </si>
-  <si>
-    <t>ZhiWu</t>
-  </si>
-  <si>
-    <t>ShiXiangMuFuZeRen</t>
-  </si>
-  <si>
-    <t>nvarchar(40)</t>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-  </si>
-  <si>
-    <t>YuSuanBiao</t>
-  </si>
-  <si>
-    <t>经费预算表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(40)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RenWuBiao</t>
-  </si>
-  <si>
-    <t>DanWeiMing</t>
-  </si>
-  <si>
-    <t>任务分工表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nvarchar(500)]</t>
-  </si>
-  <si>
-    <t>BoFuBiao</t>
-  </si>
-  <si>
-    <t>经费拨付表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoFuTiaoJian</t>
-  </si>
-  <si>
-    <t>YuJiShiJian</t>
-  </si>
-  <si>
-    <t>JingFeiJinQian</t>
-  </si>
-  <si>
-    <t>BeiZhu</t>
-  </si>
-  <si>
-    <t>nvarchar(700)</t>
-  </si>
-  <si>
-    <t>DanWeiJingFeiNianDuBiao</t>
-  </si>
-  <si>
-    <t>单位年度经费表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JinDuBiao</t>
-  </si>
-  <si>
-    <t>JieDian</t>
-  </si>
-  <si>
-    <t>ShiJian</t>
-  </si>
-  <si>
-    <t>JieDuanMuBiao</t>
-  </si>
-  <si>
-    <t>JieDuanChengGuo</t>
-  </si>
-  <si>
-    <t>研究进度安排表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JiShuBiao</t>
-  </si>
-  <si>
-    <t>技术要求表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeiRong</t>
-  </si>
-  <si>
-    <t>课题单位任务分工表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TiJiaoYaoQiuBiao</t>
-  </si>
-  <si>
-    <t>提交要求表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>YaoQiu</t>
-  </si>
-  <si>
-    <t>ZhiBiaoBiao</t>
-  </si>
-  <si>
-    <t>指标名称，要求，考核方式表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZhiBiaoMingCheng</t>
-  </si>
-  <si>
-    <t>ZhiBiaoYaoQiu</t>
-  </si>
-  <si>
-    <t>KaoHeFangShi</t>
-  </si>
-  <si>
-    <t>记录ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托_单位名称</t>
-  </si>
-  <si>
-    <t>委托_单位性质</t>
-  </si>
-  <si>
-    <t>委托_法定代表人</t>
-  </si>
-  <si>
-    <t>委托_联系人</t>
-  </si>
-  <si>
-    <t>委托_联系电话</t>
-  </si>
-  <si>
-    <t>委托_通信地址</t>
-  </si>
-  <si>
-    <t>委托_邮政编码</t>
-  </si>
-  <si>
-    <t>委托_组织机构代码</t>
-  </si>
-  <si>
-    <t>委托_税号</t>
-  </si>
-  <si>
-    <t>委托_开户名称</t>
-  </si>
-  <si>
-    <t>委托_开户银行</t>
-  </si>
-  <si>
-    <t>委托_银行账号</t>
-  </si>
-  <si>
-    <t>委托_财务负责人</t>
-  </si>
-  <si>
-    <t>承研_单位名称</t>
-  </si>
-  <si>
-    <t>承研_单位性质</t>
-  </si>
-  <si>
-    <t>承研_法定代表人</t>
-  </si>
-  <si>
-    <t>承研_联系人</t>
-  </si>
-  <si>
-    <t>承研_联系电话</t>
-  </si>
-  <si>
-    <t>承研_通信地址</t>
-  </si>
-  <si>
-    <t>承研_邮政编码</t>
-  </si>
-  <si>
-    <t>承研_组织机构代码</t>
-  </si>
-  <si>
-    <t>承研_税号</t>
-  </si>
-  <si>
-    <t>承研_开户名称</t>
-  </si>
-  <si>
-    <t>承研_开户银行</t>
-  </si>
-  <si>
-    <t>承研_银行账号</t>
-  </si>
-  <si>
-    <t>承研_财务负责人</t>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同密级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同密期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责人身份证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同价款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位联系人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属地点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同所属领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同经费管理模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题研究目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题研究内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题参加单位分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前已废弃，由课题参加单位分工表代替)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiFuZeDanWeiChangYongMingCheng</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -661,816 +1478,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>课题负责单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题负责单位联系人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题所属部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题所属地点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经费金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务职称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为项目负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨付条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经费金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段成果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标要求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>项目课题表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SecretLevel</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Type2</t>
-  </si>
-  <si>
-    <t>ParentID</t>
-  </si>
-  <si>
-    <t>UnitID</t>
-  </si>
-  <si>
-    <t>TotalTime</t>
-  </si>
-  <si>
-    <t>TotalMoney</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>DirectionCode</t>
-  </si>
-  <si>
-    <t>[Nvarchar(50)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(10)]</t>
-  </si>
-  <si>
-    <t>[NVARCHAR(10)]</t>
-  </si>
-  <si>
-    <t>ExtFileList</t>
-  </si>
-  <si>
-    <t>保密资质附件表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-  </si>
-  <si>
-    <t>ExtName</t>
-  </si>
-  <si>
-    <t>ExtType</t>
-  </si>
-  <si>
-    <t>SourceFileName</t>
-  </si>
-  <si>
-    <t>RealFileName</t>
-  </si>
-  <si>
-    <t>IsIgnore</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>[nvarchar(200)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(30)]</t>
-  </si>
-  <si>
-    <t>MoneyAndYear</t>
-  </si>
-  <si>
-    <t>经费预算表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>IDCard</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>AttachInfo</t>
-  </si>
-  <si>
-    <t>[nvarchar(5)]</t>
-  </si>
-  <si>
-    <t>[nvarchar(20000)]</t>
-  </si>
-  <si>
-    <t>ProjectAndStep</t>
-  </si>
-  <si>
-    <t>课题阶段表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepID</t>
-  </si>
-  <si>
-    <t>StepContent</t>
-  </si>
-  <si>
-    <t>StepDest</t>
-  </si>
-  <si>
-    <t>StepTarget</t>
-  </si>
-  <si>
-    <t>StepResult</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>StepTime</t>
-  </si>
-  <si>
-    <t>StepMoney</t>
-  </si>
-  <si>
-    <t>StepIndex</t>
-  </si>
-  <si>
-    <t>项目阶段表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>人员角色分配表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonID</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>DisplayOrder</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>FlagName</t>
-  </si>
-  <si>
-    <t>NormalName</t>
-  </si>
-  <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>SecretQualification</t>
-  </si>
-  <si>
-    <t>单位表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitExt</t>
-  </si>
-  <si>
-    <t>单位帐号表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitBankUser</t>
-  </si>
-  <si>
-    <t>UnitBankName</t>
-  </si>
-  <si>
-    <t>UnitBankNo</t>
-  </si>
-  <si>
-    <t>IsUserAdded</t>
-  </si>
-  <si>
-    <t>[nvarchar(255)]</t>
-  </si>
-  <si>
-    <t>WhiteList</t>
-  </si>
-  <si>
-    <t>候选单位表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZiDianBiao</t>
-  </si>
-  <si>
-    <t>共同条款数据字典表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nvarchar(600)]</t>
-  </si>
-  <si>
-    <t>(目前已废弃)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保密级别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为总体课题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(项目或课题)</t>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如当前为课题的话，则存储项目ID,否则为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题的负责单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目总时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目总经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目方向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目方向代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件显示名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件源文件名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件当前文件名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为军队单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务职称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>父阶段ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nvarchar(300)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核指标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目或课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(负责人或成员)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(项目或课题)用于表示项目角色或课题角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题总经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位别名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位常用名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位联系电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位保密级别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户帐号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为用户添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(当前保存的是 阶段目标与研究内容 )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(当前保存的是 阶段成果、考核指标及考核方式)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WanChengNeiRong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前已不用了)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前用于保存 阶段目标与研究内容)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前用于保存 阶段成果、考核指标及考核方式)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(会更新为承担单位数据)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(会更新数据,但是没怎么用)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目前为空，没怎么用)</t>
-  </si>
-  <si>
-    <t>(目前为空，没怎么用)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeTongFuZeDanWeiChangYongMingCheng</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同负责单位常用名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeTiBaoMiDengJi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题保密等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(目标已废弃)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题节点经费表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位节点经费表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeTiJieDianJingFeiBiao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DanWeiJieDianJingFeiBiao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoFuBianHao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经费拨付ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeTiBianHao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JingFei</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONEY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DanWeiMingCheng</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nvarchar(300)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>课题负责单位常用名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(705)]</t>
+  </si>
+  <si>
+    <t>GongZuoDanWeiChangYongMingCheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位常用名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(301)</t>
   </si>
 </sst>
 </file>
@@ -1853,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1900,7 +1923,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -1917,7 +1940,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
@@ -1934,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -1951,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -1968,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
@@ -1985,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -2002,7 +2025,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -2019,13 +2042,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2039,7 +2062,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -2056,7 +2079,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -2073,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
         <v>63</v>
@@ -2090,7 +2113,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -2104,10 +2127,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14" t="s">
         <v>401</v>
-      </c>
-      <c r="D14" t="s">
-        <v>403</v>
       </c>
       <c r="E14" t="s">
         <v>61</v>
@@ -2124,13 +2147,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -2144,13 +2167,13 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -2164,13 +2187,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -2184,7 +2207,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
@@ -2201,7 +2224,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -2218,7 +2241,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -2235,7 +2258,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -2252,7 +2275,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -2269,7 +2292,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
         <v>61</v>
@@ -2286,7 +2309,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
@@ -2303,7 +2326,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -2320,7 +2343,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
         <v>61</v>
@@ -2337,7 +2360,7 @@
         <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
@@ -2354,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
@@ -2371,7 +2394,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -2388,7 +2411,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
         <v>61</v>
@@ -2405,7 +2428,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
@@ -2422,7 +2445,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
         <v>61</v>
@@ -2439,7 +2462,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
@@ -2456,7 +2479,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
         <v>61</v>
@@ -2473,7 +2496,7 @@
         <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
         <v>61</v>
@@ -2490,7 +2513,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
         <v>61</v>
@@ -2507,7 +2530,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -2524,7 +2547,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
         <v>61</v>
@@ -2541,7 +2564,7 @@
         <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
         <v>61</v>
@@ -2558,7 +2581,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
         <v>61</v>
@@ -2575,7 +2598,7 @@
         <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
         <v>61</v>
@@ -2592,7 +2615,7 @@
         <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E42" t="s">
         <v>61</v>
@@ -2609,7 +2632,7 @@
         <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
         <v>61</v>
@@ -2626,7 +2649,7 @@
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
         <v>61</v>
@@ -2643,7 +2666,7 @@
         <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E45" t="s">
         <v>61</v>
@@ -2660,7 +2683,7 @@
         <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
         <v>61</v>
@@ -2677,7 +2700,7 @@
         <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
         <v>61</v>
@@ -2694,7 +2717,7 @@
         <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
         <v>61</v>
@@ -2711,7 +2734,7 @@
         <v>54</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
         <v>61</v>
@@ -2728,7 +2751,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
         <v>61</v>
@@ -2753,13 +2776,13 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
         <v>57</v>
@@ -2770,16 +2793,16 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -2787,16 +2810,16 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D55" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -2804,16 +2827,16 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2821,16 +2844,16 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -2838,19 +2861,19 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
         <v>196</v>
-      </c>
-      <c r="E58" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2858,16 +2881,16 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>419</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>421</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2875,16 +2898,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>420</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>422</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2892,19 +2915,16 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" t="s">
-        <v>399</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -2912,19 +2932,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -2932,16 +2952,19 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="F63" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -2949,16 +2972,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -2966,16 +2989,16 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E65" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -2983,338 +3006,338 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
         <v>85</v>
       </c>
-      <c r="B69" t="s">
-        <v>86</v>
-      </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
         <v>57</v>
       </c>
       <c r="F69" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
         <v>85</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>86</v>
       </c>
-      <c r="C70" t="s">
-        <v>88</v>
-      </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
         <v>85</v>
       </c>
-      <c r="B71" t="s">
-        <v>86</v>
-      </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
         <v>85</v>
       </c>
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F72" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
         <v>85</v>
       </c>
-      <c r="B73" t="s">
-        <v>86</v>
-      </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" t="s">
         <v>62</v>
       </c>
-      <c r="F73" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" t="s">
-        <v>406</v>
+      <c r="F74" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
         <v>90</v>
       </c>
-      <c r="B76" t="s">
-        <v>91</v>
-      </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
         <v>57</v>
       </c>
       <c r="F76" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
         <v>90</v>
       </c>
-      <c r="B77" t="s">
-        <v>91</v>
-      </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
         <v>90</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>91</v>
       </c>
-      <c r="C78" t="s">
-        <v>93</v>
-      </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E78" t="s">
         <v>61</v>
       </c>
       <c r="F78" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
         <v>90</v>
       </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
         <v>90</v>
       </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" t="s">
         <v>62</v>
       </c>
-      <c r="F80" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>148</v>
-      </c>
-      <c r="E82" t="s">
-        <v>110</v>
+      <c r="F81" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
         <v>94</v>
       </c>
-      <c r="B83" t="s">
-        <v>95</v>
-      </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
         <v>94</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>95</v>
       </c>
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
         <v>94</v>
       </c>
-      <c r="B86" t="s">
-        <v>95</v>
-      </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E86" t="s">
         <v>111</v>
@@ -3322,1302 +3345,1302 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
         <v>94</v>
       </c>
-      <c r="B87" t="s">
-        <v>95</v>
-      </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="s">
-        <v>95</v>
-      </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
         <v>94</v>
       </c>
-      <c r="B89" t="s">
-        <v>95</v>
-      </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E89" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="s">
-        <v>95</v>
-      </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>424</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>425</v>
       </c>
       <c r="E90" t="s">
-        <v>78</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E91" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
         <v>94</v>
       </c>
-      <c r="B92" t="s">
-        <v>95</v>
-      </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
-        <v>95</v>
-      </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>95</v>
-      </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E95" t="s">
-        <v>111</v>
-      </c>
-      <c r="F95" t="s">
-        <v>370</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
       <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="s">
+        <v>220</v>
+      </c>
+      <c r="E96" t="s">
         <v>109</v>
       </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>147</v>
+      </c>
+      <c r="E102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" t="s">
+        <v>207</v>
+      </c>
+      <c r="E103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" t="s">
+        <v>203</v>
+      </c>
+      <c r="E106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" t="s">
         <v>224</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E110" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" t="s">
+        <v>225</v>
+      </c>
+      <c r="E111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" t="s">
         <v>56</v>
       </c>
-      <c r="D97" t="s">
-        <v>204</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D112" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98" t="s">
-        <v>77</v>
-      </c>
-      <c r="D98" t="s">
-        <v>205</v>
-      </c>
-      <c r="E98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" t="s">
-        <v>92</v>
-      </c>
-      <c r="D101" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" t="s">
-        <v>210</v>
-      </c>
-      <c r="E102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103" t="s">
-        <v>114</v>
-      </c>
-      <c r="C103" t="s">
-        <v>56</v>
-      </c>
-      <c r="D103" t="s">
-        <v>204</v>
-      </c>
-      <c r="E103" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" t="s">
-        <v>114</v>
-      </c>
-      <c r="C104" t="s">
-        <v>77</v>
-      </c>
-      <c r="D104" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" t="s">
-        <v>148</v>
-      </c>
-      <c r="E106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" t="s">
-        <v>87</v>
-      </c>
-      <c r="D107" t="s">
-        <v>225</v>
-      </c>
-      <c r="E107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>117</v>
-      </c>
-      <c r="B108" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" t="s">
-        <v>118</v>
-      </c>
-      <c r="D108" t="s">
-        <v>226</v>
-      </c>
-      <c r="E108" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>117</v>
-      </c>
-      <c r="B109" t="s">
-        <v>119</v>
-      </c>
-      <c r="C109" t="s">
-        <v>103</v>
-      </c>
-      <c r="D109" t="s">
-        <v>227</v>
-      </c>
-      <c r="E109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" t="s">
-        <v>56</v>
-      </c>
-      <c r="D110" t="s">
-        <v>204</v>
-      </c>
-      <c r="E110" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" t="s">
-        <v>77</v>
-      </c>
-      <c r="D111" t="s">
-        <v>205</v>
-      </c>
-      <c r="E111" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E113" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>121</v>
-      </c>
-      <c r="B114" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" t="s">
-        <v>123</v>
-      </c>
-      <c r="D114" t="s">
-        <v>228</v>
-      </c>
-      <c r="E114" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
         <v>121</v>
       </c>
-      <c r="B115" t="s">
-        <v>122</v>
-      </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="E115" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
         <v>121</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>122</v>
       </c>
-      <c r="C116" t="s">
-        <v>125</v>
-      </c>
       <c r="D116" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E116" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
         <v>121</v>
       </c>
-      <c r="B117" t="s">
-        <v>122</v>
-      </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="E117" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" t="s">
-        <v>122</v>
-      </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E118" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
         <v>121</v>
       </c>
-      <c r="B119" t="s">
-        <v>122</v>
-      </c>
       <c r="C119" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" t="s">
+        <v>202</v>
+      </c>
+      <c r="E120" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>128</v>
-      </c>
-      <c r="B122" t="s">
-        <v>129</v>
-      </c>
-      <c r="C122" t="s">
-        <v>118</v>
-      </c>
-      <c r="D122" t="s">
-        <v>230</v>
-      </c>
-      <c r="E122" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" t="s">
-        <v>406</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
         <v>128</v>
       </c>
-      <c r="B123" t="s">
-        <v>129</v>
-      </c>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="E123" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
         <v>128</v>
       </c>
-      <c r="B124" t="s">
-        <v>129</v>
-      </c>
       <c r="C124" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D124" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E124" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F124" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
         <v>128</v>
       </c>
-      <c r="B125" t="s">
-        <v>129</v>
-      </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D125" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F125" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
         <v>128</v>
       </c>
-      <c r="B126" t="s">
-        <v>129</v>
-      </c>
       <c r="C126" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D126" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F126" t="s">
-        <v>406</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" t="s">
+        <v>65</v>
+      </c>
+      <c r="F127" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E128" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" t="s">
-        <v>135</v>
-      </c>
-      <c r="C129" t="s">
-        <v>131</v>
-      </c>
-      <c r="D129" t="s">
-        <v>233</v>
-      </c>
-      <c r="E129" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F128" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E130" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" t="s">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" t="s">
-        <v>133</v>
-      </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E131" t="s">
-        <v>127</v>
-      </c>
-      <c r="F131" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>393</v>
+        <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E132" t="s">
-        <v>127</v>
-      </c>
-      <c r="F132" t="s">
-        <v>394</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F133" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
+        <v>391</v>
       </c>
       <c r="D134" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E134" t="s">
-        <v>65</v>
+        <v>126</v>
+      </c>
+      <c r="F134" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D135" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="E135" t="s">
-        <v>62</v>
+        <v>126</v>
+      </c>
+      <c r="F135" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" t="s">
+        <v>202</v>
+      </c>
+      <c r="E136" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D137" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E137" t="s">
-        <v>110</v>
-      </c>
-      <c r="F137" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>88</v>
-      </c>
-      <c r="D138" t="s">
-        <v>231</v>
-      </c>
-      <c r="E138" t="s">
-        <v>60</v>
-      </c>
-      <c r="F138" t="s">
-        <v>406</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" t="s">
         <v>136</v>
       </c>
-      <c r="B139" t="s">
-        <v>137</v>
-      </c>
       <c r="C139" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="E139" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F139" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
+        <v>135</v>
+      </c>
+      <c r="B140" t="s">
         <v>136</v>
       </c>
-      <c r="B140" t="s">
-        <v>137</v>
-      </c>
       <c r="C140" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D140" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="E140" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F140" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" t="s">
         <v>136</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>137</v>
       </c>
-      <c r="C141" t="s">
-        <v>77</v>
-      </c>
       <c r="D141" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="E141" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F141" t="s">
-        <v>406</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B142" t="s">
+        <v>136</v>
+      </c>
+      <c r="C142" t="s">
+        <v>56</v>
+      </c>
+      <c r="D142" t="s">
+        <v>202</v>
+      </c>
+      <c r="E142" t="s">
+        <v>65</v>
+      </c>
+      <c r="F142" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D143" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>117</v>
-      </c>
-      <c r="B144" t="s">
-        <v>139</v>
-      </c>
-      <c r="C144" t="s">
-        <v>87</v>
-      </c>
-      <c r="D144" t="s">
-        <v>225</v>
-      </c>
-      <c r="E144" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="F143" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="E145" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C146" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D146" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E146" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" t="s">
         <v>117</v>
       </c>
-      <c r="B147" t="s">
-        <v>139</v>
-      </c>
-      <c r="C147" t="s">
-        <v>56</v>
-      </c>
       <c r="D147" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="E147" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D148" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E148" t="s">
-        <v>62</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" t="s">
+        <v>202</v>
+      </c>
+      <c r="E149" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D150" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E150" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
-        <v>140</v>
-      </c>
-      <c r="B151" t="s">
-        <v>141</v>
-      </c>
-      <c r="C151" t="s">
-        <v>92</v>
-      </c>
-      <c r="D151" t="s">
-        <v>239</v>
-      </c>
-      <c r="E151" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152" t="s">
         <v>140</v>
       </c>
-      <c r="B152" t="s">
-        <v>141</v>
-      </c>
       <c r="C152" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="E152" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153" t="s">
         <v>140</v>
       </c>
-      <c r="B153" t="s">
-        <v>141</v>
-      </c>
       <c r="C153" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D153" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="E153" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154" t="s">
         <v>140</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>141</v>
       </c>
-      <c r="C154" t="s">
-        <v>77</v>
-      </c>
       <c r="D154" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="E154" t="s">
-        <v>62</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>139</v>
+      </c>
+      <c r="B155" t="s">
+        <v>140</v>
+      </c>
+      <c r="C155" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" t="s">
+        <v>202</v>
+      </c>
+      <c r="E155" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B156" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D156" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E156" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157" t="s">
-        <v>144</v>
-      </c>
-      <c r="C157" t="s">
-        <v>145</v>
-      </c>
-      <c r="D157" t="s">
-        <v>241</v>
-      </c>
-      <c r="E157" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158" t="s">
         <v>143</v>
       </c>
-      <c r="B158" t="s">
-        <v>144</v>
-      </c>
       <c r="C158" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="E158" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" t="s">
         <v>143</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>144</v>
       </c>
-      <c r="C159" t="s">
-        <v>147</v>
-      </c>
       <c r="D159" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E159" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" t="s">
         <v>143</v>
       </c>
-      <c r="B160" t="s">
-        <v>144</v>
-      </c>
       <c r="C160" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="D160" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E160" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" t="s">
         <v>143</v>
       </c>
-      <c r="B161" t="s">
-        <v>144</v>
-      </c>
       <c r="C161" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D161" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="E161" t="s">
-        <v>62</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" t="s">
+        <v>56</v>
+      </c>
+      <c r="D162" t="s">
+        <v>202</v>
+      </c>
+      <c r="E162" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="B163" t="s">
-        <v>326</v>
+        <v>143</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D163" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E163" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164" t="s">
-        <v>325</v>
-      </c>
-      <c r="B164" t="s">
-        <v>326</v>
-      </c>
-      <c r="C164" t="s">
-        <v>92</v>
-      </c>
-      <c r="D164" t="s">
-        <v>209</v>
-      </c>
-      <c r="E164" t="s">
-        <v>327</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C165" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
+        <v>323</v>
+      </c>
+      <c r="B166" t="s">
+        <v>324</v>
+      </c>
+      <c r="C166" t="s">
+        <v>91</v>
+      </c>
+      <c r="D166" t="s">
+        <v>207</v>
+      </c>
+      <c r="E166" t="s">
         <v>325</v>
-      </c>
-      <c r="B166" t="s">
-        <v>326</v>
-      </c>
-      <c r="C166" t="s">
-        <v>56</v>
-      </c>
-      <c r="D166" t="s">
-        <v>204</v>
-      </c>
-      <c r="E166" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
+        <v>323</v>
+      </c>
+      <c r="B167" t="s">
+        <v>324</v>
+      </c>
+      <c r="C167" t="s">
+        <v>92</v>
+      </c>
+      <c r="D167" t="s">
+        <v>208</v>
+      </c>
+      <c r="E167" t="s">
         <v>325</v>
       </c>
-      <c r="B167" t="s">
-        <v>326</v>
-      </c>
-      <c r="C167" t="s">
-        <v>77</v>
-      </c>
-      <c r="D167" t="s">
-        <v>205</v>
-      </c>
-      <c r="E167" t="s">
-        <v>62</v>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>323</v>
+      </c>
+      <c r="B168" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" t="s">
+        <v>202</v>
+      </c>
+      <c r="E168" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="B169" t="s">
-        <v>407</v>
+        <v>324</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D169" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E169" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
-        <v>409</v>
-      </c>
-      <c r="B170" t="s">
-        <v>407</v>
-      </c>
-      <c r="C170" t="s">
-        <v>411</v>
-      </c>
-      <c r="D170" t="s">
-        <v>412</v>
-      </c>
-      <c r="E170" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B171" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C171" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>414</v>
+        <v>147</v>
       </c>
       <c r="E171" t="s">
         <v>57</v>
@@ -4625,101 +4648,101 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
+        <v>407</v>
+      </c>
+      <c r="B172" t="s">
+        <v>405</v>
+      </c>
+      <c r="C172" t="s">
         <v>409</v>
       </c>
-      <c r="B172" t="s">
-        <v>407</v>
-      </c>
-      <c r="C172" t="s">
-        <v>415</v>
-      </c>
       <c r="D172" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E172" t="s">
-        <v>417</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B173" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C173" t="s">
-        <v>56</v>
+        <v>411</v>
       </c>
       <c r="D173" t="s">
-        <v>204</v>
+        <v>412</v>
       </c>
       <c r="E173" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B174" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" t="s">
+        <v>413</v>
+      </c>
+      <c r="D174" t="s">
+        <v>414</v>
+      </c>
+      <c r="E174" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
         <v>407</v>
       </c>
-      <c r="C174" t="s">
-        <v>77</v>
-      </c>
-      <c r="D174" t="s">
-        <v>205</v>
-      </c>
-      <c r="E174" t="s">
-        <v>62</v>
+      <c r="B175" t="s">
+        <v>405</v>
+      </c>
+      <c r="C175" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" t="s">
+        <v>202</v>
+      </c>
+      <c r="E175" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B176" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D176" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E176" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" t="s">
-        <v>410</v>
-      </c>
-      <c r="B177" t="s">
-        <v>408</v>
-      </c>
-      <c r="C177" t="s">
-        <v>411</v>
-      </c>
-      <c r="D177" t="s">
-        <v>412</v>
-      </c>
-      <c r="E177" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B178" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C178" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>414</v>
+        <v>147</v>
       </c>
       <c r="E178" t="s">
         <v>57</v>
@@ -4727,69 +4750,103 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
+        <v>408</v>
+      </c>
+      <c r="B179" t="s">
+        <v>406</v>
+      </c>
+      <c r="C179" t="s">
+        <v>409</v>
+      </c>
+      <c r="D179" t="s">
         <v>410</v>
       </c>
-      <c r="B179" t="s">
-        <v>408</v>
-      </c>
-      <c r="C179" t="s">
-        <v>418</v>
-      </c>
-      <c r="D179" t="s">
-        <v>419</v>
-      </c>
       <c r="E179" t="s">
-        <v>420</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B180" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C180" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E180" t="s">
-        <v>417</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B181" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C181" t="s">
-        <v>56</v>
+        <v>416</v>
       </c>
       <c r="D181" t="s">
-        <v>204</v>
+        <v>417</v>
       </c>
       <c r="E181" t="s">
-        <v>65</v>
+        <v>418</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B182" t="s">
+        <v>406</v>
+      </c>
+      <c r="C182" t="s">
+        <v>413</v>
+      </c>
+      <c r="D182" t="s">
+        <v>414</v>
+      </c>
+      <c r="E182" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
         <v>408</v>
       </c>
-      <c r="C182" t="s">
-        <v>77</v>
-      </c>
-      <c r="D182" t="s">
-        <v>205</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="B183" t="s">
+        <v>406</v>
+      </c>
+      <c r="C183" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" t="s">
+        <v>202</v>
+      </c>
+      <c r="E183" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>408</v>
+      </c>
+      <c r="B184" t="s">
+        <v>406</v>
+      </c>
+      <c r="C184" t="s">
+        <v>76</v>
+      </c>
+      <c r="D184" t="s">
+        <v>203</v>
+      </c>
+      <c r="E184" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4804,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4840,33 +4897,33 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
         <v>244</v>
       </c>
-      <c r="B2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
-      </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
         <v>245</v>
       </c>
-      <c r="C3" t="s">
-        <v>247</v>
-      </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -4874,16 +4931,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -4891,93 +4948,93 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -4985,16 +5042,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -5002,16 +5059,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -5019,16 +5076,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E12" t="s">
         <v>61</v>
@@ -5036,16 +5093,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -5053,16 +5110,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -5070,121 +5127,121 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" t="s">
         <v>262</v>
       </c>
-      <c r="B17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" t="s">
-        <v>264</v>
-      </c>
       <c r="D17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" t="s">
         <v>263</v>
       </c>
-      <c r="C18" t="s">
-        <v>265</v>
-      </c>
       <c r="D18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -5192,87 +5249,87 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" t="s">
         <v>273</v>
       </c>
-      <c r="B26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C26" t="s">
-        <v>275</v>
-      </c>
       <c r="D26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
@@ -5280,16 +5337,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" t="s">
         <v>274</v>
       </c>
-      <c r="C29" t="s">
-        <v>276</v>
-      </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -5297,50 +5354,50 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -5348,16 +5405,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
         <v>277</v>
       </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>279</v>
-      </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
         <v>64</v>
@@ -5365,16 +5422,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>
@@ -5382,33 +5439,33 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
@@ -5416,16 +5473,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
         <v>64</v>
@@ -5433,16 +5490,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E39" t="s">
         <v>64</v>
@@ -5450,181 +5507,181 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F40" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" t="s">
         <v>286</v>
-      </c>
-      <c r="D41" t="s">
-        <v>357</v>
-      </c>
-      <c r="E41" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D42" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" t="s">
         <v>289</v>
       </c>
-      <c r="B45" t="s">
-        <v>290</v>
-      </c>
-      <c r="C45" t="s">
-        <v>291</v>
-      </c>
       <c r="D45" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" t="s">
         <v>290</v>
       </c>
-      <c r="C46" t="s">
-        <v>292</v>
-      </c>
       <c r="D46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D48" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E50" t="s">
         <v>63</v>
@@ -5632,50 +5689,50 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D53" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B54" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D54" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -5683,96 +5740,96 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D56" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" t="s">
         <v>297</v>
       </c>
-      <c r="B59" t="s">
-        <v>301</v>
-      </c>
-      <c r="C59" t="s">
-        <v>299</v>
-      </c>
       <c r="D59" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E59" t="s">
         <v>63</v>
@@ -5780,16 +5837,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E60" t="s">
         <v>60</v>
@@ -5797,107 +5854,107 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64" t="s">
         <v>302</v>
       </c>
-      <c r="B64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64" t="s">
-        <v>304</v>
-      </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B65" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" t="s">
         <v>303</v>
       </c>
-      <c r="C65" t="s">
-        <v>305</v>
-      </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E65" t="s">
         <v>59</v>
       </c>
       <c r="F65" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F66" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B67" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E67" t="s">
         <v>61</v>
@@ -5905,16 +5962,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C68" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E68" t="s">
         <v>60</v>
@@ -5922,16 +5979,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C69" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E69" t="s">
         <v>63</v>
@@ -5939,33 +5996,33 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B70" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B71" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E71" t="s">
         <v>60</v>
@@ -5973,33 +6030,33 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B73" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E74" t="s">
         <v>61</v>
@@ -6007,56 +6064,56 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" t="s">
         <v>308</v>
       </c>
-      <c r="B75" t="s">
-        <v>315</v>
-      </c>
-      <c r="C75" t="s">
-        <v>310</v>
-      </c>
       <c r="D75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E75" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F75" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C76" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E76" t="s">
         <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E77" t="s">
         <v>61</v>
@@ -6064,282 +6121,282 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D78" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E78" t="s">
         <v>61</v>
       </c>
       <c r="F78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B79" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D79" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E80" t="s">
         <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C81" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D81" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F81" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B83" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F83" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D84" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E84" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D85" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E85" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F85" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" t="s">
+        <v>315</v>
+      </c>
+      <c r="C86" t="s">
         <v>316</v>
       </c>
-      <c r="B86" t="s">
-        <v>317</v>
-      </c>
-      <c r="C86" t="s">
-        <v>318</v>
-      </c>
       <c r="D86" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E86" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F86" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" t="s">
         <v>317</v>
       </c>
-      <c r="C87" t="s">
-        <v>319</v>
-      </c>
       <c r="D87" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E87" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F87" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
+        <v>318</v>
+      </c>
+      <c r="D88" t="s">
+        <v>385</v>
+      </c>
+      <c r="E88" t="s">
         <v>320</v>
       </c>
-      <c r="D88" t="s">
-        <v>387</v>
-      </c>
-      <c r="E88" t="s">
-        <v>322</v>
-      </c>
       <c r="F88" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C89" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D89" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E89" t="s">
         <v>60</v>
       </c>
       <c r="F89" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B92" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D92" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E92" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C93" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E93" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F93" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
